--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>&amp;=I18N.KWR002_211(bean)</t>
   </si>
@@ -708,62 +708,230 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -788,174 +956,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection sqref="A1:I4"/>
+      <selection activeCell="AQ7" sqref="AQ7:BJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1285,667 +1285,828 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="O1" s="52" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="O1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AD1" s="86" t="s">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AD1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="41"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="59"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="45"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="62"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="62"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="61"/>
+      <c r="BJ2" s="63"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AD3" s="87" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AD3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="87"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="7"/>
-      <c r="BJ4" s="9"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="51"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="9"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="80"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="29"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="29"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="29"/>
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="29"/>
+      <c r="BD5" s="81"/>
+      <c r="BE5" s="29"/>
+      <c r="BF5" s="81"/>
+      <c r="BG5" s="29"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="29"/>
+      <c r="BJ5" s="51"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="11"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
-      <c r="AJ6" s="81"/>
-      <c r="AK6" s="81"/>
-      <c r="AL6" s="81"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="81"/>
-      <c r="AO6" s="81"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="39"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="62" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="11"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="81"/>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="81"/>
-      <c r="AM7" s="81"/>
-      <c r="AN7" s="81"/>
-      <c r="AO7" s="81"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="39"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AQ7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="17"/>
+      <c r="BD7" s="17"/>
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17"/>
+      <c r="BG7" s="17"/>
+      <c r="BH7" s="17"/>
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="17"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="68"/>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="81"/>
-      <c r="AJ8" s="81"/>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="81"/>
-      <c r="AM8" s="81"/>
-      <c r="AN8" s="81"/>
-      <c r="AO8" s="81"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="42"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
     </row>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="65"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="81"/>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="81"/>
-      <c r="AH9" s="81"/>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="81"/>
-      <c r="AK9" s="81"/>
-      <c r="AL9" s="81"/>
-      <c r="AM9" s="81"/>
-      <c r="AN9" s="81"/>
-      <c r="AO9" s="81"/>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="41"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AQ9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="23" t="s">
+      <c r="V11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W11" s="24"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="23" t="s">
+      <c r="W11" s="16"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="23" t="s">
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="23" t="s">
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AQ11" s="37" t="s">
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AQ11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AR11" s="38"/>
+      <c r="AR11" s="56"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="32"/>
-      <c r="BA11" s="32"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="32"/>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="35"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="36"/>
+      <c r="AY11" s="88"/>
+      <c r="AZ11" s="88"/>
+      <c r="BA11" s="88"/>
+      <c r="BB11" s="88"/>
+      <c r="BC11" s="88"/>
+      <c r="BD11" s="89"/>
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="53"/>
+      <c r="BG11" s="52"/>
+      <c r="BH11" s="53"/>
+      <c r="BI11" s="52"/>
+      <c r="BJ11" s="54"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="74"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="32"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="72" t="s">
+      <c r="V12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="69" t="s">
+      <c r="W12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="71" t="s">
+      <c r="X12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="89"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="14"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="27"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="27"/>
-      <c r="BC12" s="27"/>
-      <c r="BD12" s="28"/>
-      <c r="BE12" s="29"/>
-      <c r="BF12" s="30"/>
-      <c r="BG12" s="29"/>
-      <c r="BH12" s="30"/>
-      <c r="BI12" s="29"/>
-      <c r="BJ12" s="31"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="83"/>
+      <c r="BC12" s="83"/>
+      <c r="BD12" s="84"/>
+      <c r="BE12" s="85"/>
+      <c r="BF12" s="86"/>
+      <c r="BG12" s="85"/>
+      <c r="BH12" s="86"/>
+      <c r="BI12" s="85"/>
+      <c r="BJ12" s="87"/>
     </row>
     <row r="13" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="76" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="78"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="34"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="79" t="s">
+      <c r="V13" s="33"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="80"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="80"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="80"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="80"/>
-      <c r="AL13" s="79"/>
-      <c r="AM13" s="80"/>
-      <c r="AN13" s="79"/>
-      <c r="AO13" s="88"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="11"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="12"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="69"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="14"/>
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="71"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="16"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="73"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="18"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="O1:AB4"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AD7:AE9"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="AD1:AO2"/>
     <mergeCell ref="AD3:AO4"/>
     <mergeCell ref="AH13:AI13"/>
@@ -1970,155 +2131,6 @@
     <mergeCell ref="AL7:AM9"/>
     <mergeCell ref="AN7:AO9"/>
     <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AD7:AE9"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="O1:AB4"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -155,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -427,58 +427,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,7 +638,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -701,261 +649,249 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1276,7 +1212,7 @@
   <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="AQ7:BJ7"/>
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1285,693 +1221,814 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="O1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="O1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AD1" s="7" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AD1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="59"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="40"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="40"/>
+      <c r="BJ1" s="42"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="62"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="62"/>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="63"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="40"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="42"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AD3" s="8" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AD3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="29"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="29"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="29"/>
-      <c r="BF4" s="81"/>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="29"/>
-      <c r="BJ4" s="51"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="9"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="81"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="81"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="81"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="81"/>
-      <c r="BE5" s="29"/>
-      <c r="BF5" s="81"/>
-      <c r="BG5" s="29"/>
-      <c r="BH5" s="81"/>
-      <c r="BI5" s="29"/>
-      <c r="BJ5" s="51"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="9"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="39"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="11"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="75"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="38" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="39"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AQ7" s="15" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="11"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
+      <c r="AQ7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="15" t="s">
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17"/>
-      <c r="BJ7" s="17"/>
+      <c r="AY7" s="24"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BE7" s="25"/>
+      <c r="BF7" s="25"/>
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="42"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="62"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
     </row>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="41"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AQ9" s="15" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="59"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AQ9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="15" t="s">
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="15" t="s">
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="15" t="s">
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25"/>
+      <c r="BG9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="W11" s="16"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="15" t="s">
+      <c r="W11" s="24"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="15" t="s">
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="15" t="s">
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AQ11" s="55" t="s">
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AQ11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AR11" s="56"/>
+      <c r="AR11" s="38"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="88"/>
-      <c r="AZ11" s="88"/>
-      <c r="BA11" s="88"/>
-      <c r="BB11" s="88"/>
-      <c r="BC11" s="88"/>
-      <c r="BD11" s="89"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="54"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="32"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="35"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="35"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="36"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="32"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="68"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="23" t="s">
+      <c r="W12" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="12" t="s">
+      <c r="X12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="14"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="83"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="83"/>
-      <c r="AZ12" s="83"/>
-      <c r="BA12" s="83"/>
-      <c r="BB12" s="83"/>
-      <c r="BC12" s="83"/>
-      <c r="BD12" s="84"/>
-      <c r="BE12" s="85"/>
-      <c r="BF12" s="86"/>
-      <c r="BG12" s="85"/>
-      <c r="BH12" s="86"/>
-      <c r="BI12" s="85"/>
-      <c r="BJ12" s="87"/>
+      <c r="AY12" s="27"/>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="27"/>
+      <c r="BC12" s="27"/>
+      <c r="BD12" s="28"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="30"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="30"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="31"/>
     </row>
     <row r="13" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="34"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="72"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="9" t="s">
+      <c r="V13" s="69"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="11"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="74"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="82"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="69"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="12"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ15" s="70"/>
-      <c r="AR15" s="71"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="14"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="73"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="16"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ17" s="74"/>
-      <c r="AR17" s="75"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AD1:AO2"/>
+    <mergeCell ref="AD3:AO4"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AF11:AK11"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AF7:AG9"/>
+    <mergeCell ref="AH7:AI9"/>
+    <mergeCell ref="AJ7:AK9"/>
+    <mergeCell ref="AL7:AM9"/>
+    <mergeCell ref="AN7:AO9"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AD7:AE9"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="O1:AB4"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="AQ14:AR14"/>
     <mergeCell ref="AQ15:AR17"/>
     <mergeCell ref="AQ4:AQ5"/>
@@ -1996,141 +2053,20 @@
     <mergeCell ref="BA11:BB11"/>
     <mergeCell ref="BC11:BD11"/>
     <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="O1:AB4"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AD7:AE9"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="AD1:AO2"/>
-    <mergeCell ref="AD3:AO4"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AF11:AK11"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AF7:AG9"/>
-    <mergeCell ref="AH7:AI9"/>
-    <mergeCell ref="AJ7:AK9"/>
-    <mergeCell ref="AL7:AM9"/>
-    <mergeCell ref="AN7:AO9"/>
-    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$AO$15</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -638,7 +638,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -656,242 +656,251 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1221,679 +1230,828 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="O1" s="46" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="O1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AD1" s="80" t="s">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AD1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="41"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="42"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="59"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="42"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="59"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AD3" s="81" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AD3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="7"/>
-      <c r="BJ4" s="9"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="65"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="65"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="65"/>
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="65"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="51"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="9"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="76"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="29"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="29"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="29"/>
+      <c r="BB5" s="65"/>
+      <c r="BC5" s="29"/>
+      <c r="BD5" s="65"/>
+      <c r="BE5" s="29"/>
+      <c r="BF5" s="65"/>
+      <c r="BG5" s="29"/>
+      <c r="BH5" s="65"/>
+      <c r="BI5" s="29"/>
+      <c r="BJ5" s="51"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="11"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="75"/>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="75"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="39"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="56" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="11"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AQ7" s="23" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="39"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AQ7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="23" t="s">
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="17"/>
+      <c r="BD7" s="17"/>
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17"/>
+      <c r="BG7" s="17"/>
+      <c r="BH7" s="17"/>
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="17"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="62"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="42"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
     </row>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="59"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AQ9" s="23" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="41"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AQ9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="23" t="s">
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="23" t="s">
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="23" t="s">
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="23" t="s">
+      <c r="V11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W11" s="24"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="23" t="s">
+      <c r="W11" s="16"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="23" t="s">
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="23" t="s">
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AQ11" s="37" t="s">
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AQ11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AR11" s="38"/>
+      <c r="AR11" s="56"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="32"/>
-      <c r="BA11" s="32"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="32"/>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="35"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="36"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="84"/>
+      <c r="BA11" s="84"/>
+      <c r="BB11" s="84"/>
+      <c r="BC11" s="84"/>
+      <c r="BD11" s="85"/>
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="53"/>
+      <c r="BG11" s="52"/>
+      <c r="BH11" s="53"/>
+      <c r="BI11" s="52"/>
+      <c r="BJ11" s="54"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="68"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="32"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="66" t="s">
+      <c r="V12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="63" t="s">
+      <c r="W12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="65" t="s">
+      <c r="X12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="83"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="14"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="78"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="27"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="27"/>
-      <c r="BC12" s="27"/>
-      <c r="BD12" s="28"/>
-      <c r="BE12" s="29"/>
-      <c r="BF12" s="30"/>
-      <c r="BG12" s="29"/>
-      <c r="BH12" s="30"/>
-      <c r="BI12" s="29"/>
-      <c r="BJ12" s="31"/>
+      <c r="AY12" s="79"/>
+      <c r="AZ12" s="79"/>
+      <c r="BA12" s="79"/>
+      <c r="BB12" s="79"/>
+      <c r="BC12" s="79"/>
+      <c r="BD12" s="80"/>
+      <c r="BE12" s="81"/>
+      <c r="BF12" s="82"/>
+      <c r="BG12" s="81"/>
+      <c r="BH12" s="82"/>
+      <c r="BI12" s="81"/>
+      <c r="BJ12" s="83"/>
     </row>
     <row r="13" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="70" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="72"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="34"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="73" t="s">
+      <c r="V13" s="33"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="73"/>
-      <c r="AI13" s="74"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="74"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="74"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="82"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="11"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="12"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="66"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="14"/>
+      <c r="AQ15" s="67"/>
+      <c r="AR15" s="68"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="16"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="70"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="18"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="O1:AB4"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AD7:AE9"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="AD1:AO2"/>
     <mergeCell ref="AD3:AO4"/>
     <mergeCell ref="AH13:AI13"/>
@@ -1918,155 +2076,6 @@
     <mergeCell ref="AL7:AM9"/>
     <mergeCell ref="AN7:AO9"/>
     <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AD7:AE9"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="O1:AB4"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -656,242 +656,242 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -1220,703 +1220,824 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.85546875" style="6"/>
+    <col min="1" max="16384" width="3.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="O1" s="44" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="O1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AD1" s="7" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AD1" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="59"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="40"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="41"/>
     </row>
-    <row r="2" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="59"/>
+    <row r="2" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="40"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="41"/>
     </row>
-    <row r="3" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AD3" s="8" t="s">
+    <row r="3" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AD3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
     </row>
-    <row r="4" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="65"/>
-      <c r="BA4" s="29"/>
-      <c r="BB4" s="65"/>
-      <c r="BC4" s="29"/>
-      <c r="BD4" s="65"/>
-      <c r="BE4" s="29"/>
-      <c r="BF4" s="65"/>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="65"/>
-      <c r="BI4" s="29"/>
-      <c r="BJ4" s="51"/>
+    <row r="4" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="9"/>
     </row>
-    <row r="5" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="76"/>
-      <c r="AS5" s="77"/>
-      <c r="AT5" s="77"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="65"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="65"/>
-      <c r="BE5" s="29"/>
-      <c r="BF5" s="65"/>
-      <c r="BG5" s="29"/>
-      <c r="BH5" s="65"/>
-      <c r="BI5" s="29"/>
-      <c r="BJ5" s="51"/>
+    <row r="5" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="9"/>
     </row>
-    <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:62" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="39"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="11"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="77"/>
     </row>
-    <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="38" t="s">
+    <row r="7" spans="1:62" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="39"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AQ7" s="15" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="11"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="77"/>
+      <c r="AK7" s="77"/>
+      <c r="AL7" s="77"/>
+      <c r="AM7" s="77"/>
+      <c r="AN7" s="77"/>
+      <c r="AO7" s="77"/>
+      <c r="AQ7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="15" t="s">
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17"/>
-      <c r="BJ7" s="17"/>
+      <c r="AY7" s="24"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BE7" s="25"/>
+      <c r="BF7" s="25"/>
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
     </row>
-    <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="42"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
+    <row r="8" spans="1:62" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="64"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="77"/>
     </row>
-    <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="41"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AQ9" s="15" t="s">
+    <row r="9" spans="1:62" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="61"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AQ9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="15" t="s">
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="15" t="s">
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="15" t="s">
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25"/>
+      <c r="BG9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25"/>
     </row>
-    <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+    <row r="10" spans="1:62" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:62" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="W11" s="16"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="15" t="s">
+      <c r="W11" s="24"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="15" t="s">
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
       <c r="AL11" s="86" t="s">
         <v>6</v>
       </c>
       <c r="AM11" s="87"/>
       <c r="AN11" s="88"/>
       <c r="AO11" s="88"/>
-      <c r="AQ11" s="55" t="s">
+      <c r="AQ11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AR11" s="56"/>
+      <c r="AR11" s="38"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="84"/>
-      <c r="BD11" s="85"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="54"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="32"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="35"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="35"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="36"/>
     </row>
-    <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:62" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="32"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="70"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="23" t="s">
+      <c r="W12" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="12" t="s">
+      <c r="X12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="14"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="67"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="67"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="85"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="79"/>
-      <c r="AZ12" s="79"/>
-      <c r="BA12" s="79"/>
-      <c r="BB12" s="79"/>
-      <c r="BC12" s="79"/>
-      <c r="BD12" s="80"/>
-      <c r="BE12" s="81"/>
-      <c r="BF12" s="82"/>
-      <c r="BG12" s="81"/>
-      <c r="BH12" s="82"/>
-      <c r="BI12" s="81"/>
-      <c r="BJ12" s="83"/>
+      <c r="AY12" s="27"/>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="27"/>
+      <c r="BC12" s="27"/>
+      <c r="BD12" s="28"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="30"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="30"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="31"/>
     </row>
-    <row r="13" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="25" t="s">
+    <row r="13" spans="1:62" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="79"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="34"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="74"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="9" t="s">
+      <c r="V13" s="71"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="11"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="84"/>
     </row>
-    <row r="14" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="66"/>
+    <row r="14" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="12"/>
     </row>
-    <row r="15" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="68"/>
+    <row r="15" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="14"/>
     </row>
-    <row r="16" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="70"/>
+    <row r="16" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="16"/>
     </row>
-    <row r="17" spans="43:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="72"/>
+    <row r="17" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AD1:AO2"/>
+    <mergeCell ref="AD3:AO4"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AF11:AK11"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AF7:AG9"/>
+    <mergeCell ref="AH7:AI9"/>
+    <mergeCell ref="AJ7:AK9"/>
+    <mergeCell ref="AL7:AM9"/>
+    <mergeCell ref="AN7:AO9"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AD7:AE9"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="O1:AB4"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="AQ14:AR14"/>
     <mergeCell ref="AQ15:AR17"/>
     <mergeCell ref="AQ4:AQ5"/>
@@ -1941,146 +2062,22 @@
     <mergeCell ref="BA11:BB11"/>
     <mergeCell ref="BC11:BD11"/>
     <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="O1:AB4"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AD7:AE9"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="AD1:AO2"/>
-    <mergeCell ref="AD3:AO4"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AF11:AK11"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AF7:AG9"/>
-    <mergeCell ref="AH7:AI9"/>
-    <mergeCell ref="AJ7:AK9"/>
-    <mergeCell ref="AL7:AM9"/>
-    <mergeCell ref="AN7:AO9"/>
-    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="51" max="16383" man="1"/>
-  </rowBreaks>
+  <pageSetup scale="77" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -633,16 +633,223 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,213 +865,6 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="Q1" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1:BJ17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1195,72 +1195,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="45"/>
       <c r="S1" s="41"/>
       <c r="T1" s="42"/>
       <c r="U1" s="41"/>
       <c r="V1" s="42"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="50"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="82"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="82"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="82"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="82"/>
-      <c r="BJ1" s="84"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="46"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="8"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1277,8 +1277,8 @@
       <c r="N2" s="42"/>
       <c r="O2" s="41"/>
       <c r="P2" s="42"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
       <c r="S2" s="41"/>
       <c r="T2" s="42"/>
       <c r="U2" s="41"/>
@@ -1286,480 +1286,539 @@
       <c r="W2" s="41"/>
       <c r="X2" s="42"/>
       <c r="Y2" s="41"/>
-      <c r="Z2" s="49"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="82"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="83"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="83"/>
-      <c r="BI2" s="82"/>
-      <c r="BJ2" s="84"/>
+      <c r="Z2" s="43"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="8"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="53"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="52"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="10"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="70"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="10"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="49"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="48"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="47"/>
+      <c r="BJ4" s="49"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="30" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="30" t="s">
+      <c r="V5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="31"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="30" t="s">
+      <c r="W5" s="23"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="30" t="s">
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="71" t="s">
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="73"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="10"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="72"/>
+      <c r="AS5" s="73"/>
+      <c r="AT5" s="73"/>
+      <c r="AU5" s="73"/>
+      <c r="AV5" s="73"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="49"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="59"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="57" t="s">
+      <c r="V6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="54" t="s">
+      <c r="W6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="56" t="s">
+      <c r="X6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="57"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="57"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="79"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="21"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="61" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="63"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="64" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="78"/>
-      <c r="AQ7" s="30" t="s">
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="18"/>
+      <c r="AQ7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="30" t="s">
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="24"/>
+      <c r="AT7" s="24"/>
+      <c r="AU7" s="24"/>
+      <c r="AV7" s="24"/>
+      <c r="AW7" s="24"/>
+      <c r="AX7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="32"/>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="32"/>
-      <c r="BI7" s="32"/>
-      <c r="BJ7" s="32"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="24"/>
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="24"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="24"/>
+      <c r="BH7" s="24"/>
+      <c r="BI7" s="24"/>
+      <c r="BJ7" s="24"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AQ9" s="30" t="s">
+      <c r="AQ9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="30" t="s">
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="30" t="s">
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="31"/>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32"/>
-      <c r="BG9" s="30" t="s">
+      <c r="BB9" s="23"/>
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AQ11" s="16" t="s">
+      <c r="AQ11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="17"/>
+      <c r="AR11" s="60"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="12"/>
-      <c r="BE11" s="13"/>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="13"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="15"/>
+      <c r="AY11" s="80"/>
+      <c r="AZ11" s="80"/>
+      <c r="BA11" s="80"/>
+      <c r="BB11" s="80"/>
+      <c r="BC11" s="80"/>
+      <c r="BD11" s="81"/>
+      <c r="BE11" s="82"/>
+      <c r="BF11" s="83"/>
+      <c r="BG11" s="82"/>
+      <c r="BH11" s="83"/>
+      <c r="BI11" s="82"/>
+      <c r="BJ11" s="84"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="34"/>
-      <c r="BB12" s="34"/>
-      <c r="BC12" s="34"/>
-      <c r="BD12" s="35"/>
-      <c r="BE12" s="36"/>
-      <c r="BF12" s="37"/>
-      <c r="BG12" s="36"/>
-      <c r="BH12" s="37"/>
-      <c r="BI12" s="36"/>
-      <c r="BJ12" s="38"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="75"/>
+      <c r="BA12" s="75"/>
+      <c r="BB12" s="75"/>
+      <c r="BC12" s="75"/>
+      <c r="BD12" s="76"/>
+      <c r="BE12" s="77"/>
+      <c r="BF12" s="78"/>
+      <c r="BG12" s="77"/>
+      <c r="BH12" s="78"/>
+      <c r="BI12" s="77"/>
+      <c r="BJ12" s="79"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="19"/>
+      <c r="AQ14" s="61"/>
+      <c r="AR14" s="62"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ15" s="20"/>
-      <c r="AR15" s="21"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="64"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="23"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="66"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="25"/>
+      <c r="AQ17" s="67"/>
+      <c r="AR17" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AF2:AG4"/>
-    <mergeCell ref="AH2:AI4"/>
-    <mergeCell ref="AJ2:AK4"/>
-    <mergeCell ref="AL2:AM4"/>
-    <mergeCell ref="AN2:AO4"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE4"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:T5"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="AF6:AG6"/>
@@ -1784,108 +1843,49 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:T5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AF2:AG4"/>
+    <mergeCell ref="AH2:AI4"/>
+    <mergeCell ref="AJ2:AK4"/>
+    <mergeCell ref="AL2:AM4"/>
+    <mergeCell ref="AN2:AO4"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE4"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -15,7 +15,7 @@
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$AO$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$AO$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -678,6 +678,9 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -687,9 +690,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -726,6 +726,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -742,12 +748,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,44 +1199,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="44"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="38"/>
       <c r="Z1" s="46"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
       <c r="AQ1" s="14"/>
       <c r="AR1" s="12"/>
       <c r="AS1" s="10"/>
@@ -1261,44 +1261,44 @@
     <row r="2" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="43"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="45"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
       <c r="AQ2" s="15"/>
       <c r="AR2" s="13"/>
       <c r="AS2" s="10"/>
@@ -1347,18 +1347,18 @@
       <c r="X3" s="51"/>
       <c r="Y3" s="50"/>
       <c r="Z3" s="52"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
@@ -1387,18 +1387,18 @@
       <c r="X4" s="48"/>
       <c r="Y4" s="47"/>
       <c r="Z4" s="49"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
       <c r="AQ4" s="69"/>
       <c r="AR4" s="71"/>
       <c r="AS4" s="73"/>
@@ -1421,53 +1421,53 @@
       <c r="BJ4" s="49"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="22" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="23"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="22" t="s">
+      <c r="W5" s="24"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="22" t="s">
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
       <c r="AL5" s="26" t="s">
         <v>6</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="Q6" s="33"/>
       <c r="R6" s="34"/>
       <c r="S6" s="33"/>
-      <c r="T6" s="38"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="2"/>
       <c r="V6" s="20" t="s">
         <v>7</v>
@@ -1572,9 +1572,9 @@
       <c r="Q7" s="35"/>
       <c r="R7" s="36"/>
       <c r="S7" s="35"/>
-      <c r="T7" s="40"/>
+      <c r="T7" s="42"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="39"/>
+      <c r="V7" s="41"/>
       <c r="W7" s="37"/>
       <c r="X7" s="16" t="s">
         <v>13</v>
@@ -1596,61 +1596,61 @@
       <c r="AM7" s="17"/>
       <c r="AN7" s="16"/>
       <c r="AO7" s="18"/>
-      <c r="AQ7" s="22" t="s">
+      <c r="AQ7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="23"/>
-      <c r="AS7" s="24"/>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="24"/>
-      <c r="AV7" s="24"/>
-      <c r="AW7" s="24"/>
-      <c r="AX7" s="22" t="s">
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="24"/>
-      <c r="BC7" s="24"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="24"/>
-      <c r="BF7" s="24"/>
-      <c r="BG7" s="24"/>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="24"/>
-      <c r="BJ7" s="24"/>
+      <c r="AY7" s="24"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BE7" s="25"/>
+      <c r="BF7" s="25"/>
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AQ9" s="22" t="s">
+      <c r="AQ9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="22" t="s">
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="22" t="s">
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="23"/>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24"/>
-      <c r="BG9" s="22" t="s">
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25"/>
+      <c r="BG9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1726,6 +1726,8 @@
     <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="BG5:BH5"/>
     <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
     <mergeCell ref="BC11:BD11"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BA4:BB4"/>
@@ -1735,6 +1737,8 @@
     <mergeCell ref="BI4:BJ4"/>
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="AQ11:AR11"/>
     <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="AQ14:AR14"/>
@@ -1757,8 +1761,8 @@
     <mergeCell ref="BE12:BF12"/>
     <mergeCell ref="BG12:BH12"/>
     <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -1781,17 +1785,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:T5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
@@ -1805,8 +1798,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="Q6:R6"/>
@@ -1819,6 +1810,18 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE4"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:T5"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="AF6:AG6"/>
@@ -1843,7 +1846,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AA5:AE5"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -1856,8 +1858,6 @@
     <mergeCell ref="AJ2:AK4"/>
     <mergeCell ref="AL2:AM4"/>
     <mergeCell ref="AN2:AO4"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE4"/>
     <mergeCell ref="AR1:AR2"/>
     <mergeCell ref="AQ1:AQ2"/>
     <mergeCell ref="AH7:AI7"/>
@@ -1888,12 +1888,18 @@
     <mergeCell ref="AW2:AX2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <printOptions horizontalCentered="1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;9&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
 page&amp;P</oddHeader>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="45" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="41" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$AO$45</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -633,14 +630,224 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -648,223 +855,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1185,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -1195,548 +1192,653 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="46"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="8"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="65"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="83"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="84"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="43" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="45"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="8"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="63"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="84"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="52"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="51"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="49"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="49"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="10"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="10"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="23" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="23" t="s">
+      <c r="V5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="24"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="23" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="23" t="s">
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="26" t="s">
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="73"/>
-      <c r="AT5" s="73"/>
-      <c r="AU5" s="73"/>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="49"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="73"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="10"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="40"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="20" t="s">
+      <c r="V6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="W6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="21"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="52"/>
+      <c r="AO6" s="79"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="42"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="60"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="16" t="s">
+      <c r="V7" s="57"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="18"/>
-      <c r="AQ7" s="23" t="s">
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="78"/>
+      <c r="AQ7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="23" t="s">
+      <c r="AR7" s="33"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="34"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="34"/>
+      <c r="BD7" s="34"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AQ9" s="23" t="s">
+      <c r="AQ9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="23" t="s">
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="23" t="s">
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="23" t="s">
+      <c r="BB9" s="33"/>
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AQ11" s="59" t="s">
+      <c r="AQ11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="60"/>
+      <c r="AR11" s="19"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="80"/>
-      <c r="AZ11" s="80"/>
-      <c r="BA11" s="80"/>
-      <c r="BB11" s="80"/>
-      <c r="BC11" s="80"/>
-      <c r="BD11" s="81"/>
-      <c r="BE11" s="82"/>
-      <c r="BF11" s="83"/>
-      <c r="BG11" s="82"/>
-      <c r="BH11" s="83"/>
-      <c r="BI11" s="82"/>
-      <c r="BJ11" s="84"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="15"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="74"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="75"/>
-      <c r="AZ12" s="75"/>
-      <c r="BA12" s="75"/>
-      <c r="BB12" s="75"/>
-      <c r="BC12" s="75"/>
-      <c r="BD12" s="76"/>
-      <c r="BE12" s="77"/>
-      <c r="BF12" s="78"/>
-      <c r="BG12" s="77"/>
-      <c r="BH12" s="78"/>
-      <c r="BI12" s="77"/>
-      <c r="BJ12" s="79"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="36"/>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="39"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="40"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="62"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="21"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="64"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="23"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="66"/>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="25"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ17" s="67"/>
-      <c r="AR17" s="68"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AF2:AG4"/>
+    <mergeCell ref="AH2:AI4"/>
+    <mergeCell ref="AJ2:AK4"/>
+    <mergeCell ref="AL2:AM4"/>
+    <mergeCell ref="AN2:AO4"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE4"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:T5"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="AQ11:AR11"/>
@@ -1761,134 +1863,29 @@
     <mergeCell ref="BE12:BF12"/>
     <mergeCell ref="BG12:BH12"/>
     <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE4"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:T5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AF2:AG4"/>
-    <mergeCell ref="AH2:AI4"/>
-    <mergeCell ref="AJ2:AK4"/>
-    <mergeCell ref="AL2:AM4"/>
-    <mergeCell ref="AN2:AO4"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <printOptions horizontalCentered="1" gridLines="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\02_UK\GIT\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5322F45B-D44F-4633-A75C-4F454CA00843}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -71,12 +72,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,7 +109,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -140,20 +141,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -602,6 +594,28 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -612,7 +626,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -623,26 +637,235 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,221 +877,38 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 3" xfId="1"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,668 +1219,626 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="AW17" sqref="AW17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.125" style="6"/>
+    <col min="1" max="16384" width="3.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="10"/>
+    </row>
+    <row r="2" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="10"/>
+    </row>
+    <row r="3" spans="1:62" ht="9.75" customHeight="1">
+      <c r="A3" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:62" ht="9.75" customHeight="1">
+      <c r="A4" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="47" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="65"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="82"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="82"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="82"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="82"/>
-      <c r="BJ1" s="84"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="44"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="48"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="54"/>
     </row>
-    <row r="2" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="16" t="s">
+    <row r="5" spans="1:62" ht="9.75" customHeight="1">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="63"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="82"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="83"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="83"/>
-      <c r="BI2" s="82"/>
-      <c r="BJ2" s="84"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="53"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="73"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="54"/>
     </row>
-    <row r="3" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="51"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
+    <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="57"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
     </row>
-    <row r="4" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="10"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="10"/>
+    <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="54"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AQ7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="47"/>
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="47"/>
+      <c r="BD7" s="47"/>
+      <c r="BE7" s="47"/>
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="47"/>
+      <c r="BH7" s="47"/>
+      <c r="BI7" s="47"/>
+      <c r="BJ7" s="47"/>
     </row>
-    <row r="5" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="32" t="s">
+    <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="U8" s="1"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+    </row>
+    <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="23"/>
+      <c r="AQ9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="32" t="s">
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="32" t="s">
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="47"/>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="47"/>
+      <c r="BA9" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="71" t="s">
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="47"/>
+      <c r="BE9" s="47"/>
+      <c r="BF9" s="47"/>
+      <c r="BG9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="73"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="10"/>
+      <c r="BH9" s="46"/>
+      <c r="BI9" s="47"/>
+      <c r="BJ9" s="47"/>
     </row>
-    <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="X6" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="79"/>
+    <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="20"/>
     </row>
-    <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="78"/>
-      <c r="AQ7" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="34"/>
-      <c r="AT7" s="34"/>
-      <c r="AU7" s="34"/>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="34"/>
-      <c r="AX7" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="34"/>
-      <c r="BB7" s="34"/>
-      <c r="BC7" s="34"/>
-      <c r="BD7" s="34"/>
-      <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
-    </row>
-    <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AQ9" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB9" s="33"/>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="34"/>
-    </row>
-    <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AQ11" s="18" t="s">
+    <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="AQ11" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="19"/>
+      <c r="AR11" s="61"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="12"/>
-      <c r="BE11" s="13"/>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="13"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="15"/>
+      <c r="AY11" s="81"/>
+      <c r="AZ11" s="81"/>
+      <c r="BA11" s="81"/>
+      <c r="BB11" s="81"/>
+      <c r="BC11" s="81"/>
+      <c r="BD11" s="82"/>
+      <c r="BE11" s="83"/>
+      <c r="BF11" s="84"/>
+      <c r="BG11" s="83"/>
+      <c r="BH11" s="84"/>
+      <c r="BI11" s="83"/>
+      <c r="BJ11" s="85"/>
     </row>
-    <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
+    <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
+      <c r="AQ12" s="75"/>
+      <c r="AR12" s="75"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="36"/>
-      <c r="AZ12" s="36"/>
-      <c r="BA12" s="36"/>
-      <c r="BB12" s="36"/>
-      <c r="BC12" s="36"/>
-      <c r="BD12" s="37"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="38"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="38"/>
-      <c r="BJ12" s="40"/>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
+      <c r="BD12" s="77"/>
+      <c r="BE12" s="78"/>
+      <c r="BF12" s="79"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="79"/>
+      <c r="BI12" s="78"/>
+      <c r="BJ12" s="80"/>
     </row>
-    <row r="14" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="21"/>
+    <row r="14" spans="1:62" ht="9.75" customHeight="1">
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="63"/>
     </row>
-    <row r="15" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="23"/>
+    <row r="15" spans="1:62" ht="9.75" customHeight="1">
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="65"/>
     </row>
-    <row r="16" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="25"/>
+    <row r="16" spans="1:62" ht="9.75" customHeight="1">
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="67"/>
     </row>
-    <row r="17" spans="43:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="27"/>
+    <row r="17" spans="43:44" ht="9.75" customHeight="1">
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="169">
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AF2:AG4"/>
-    <mergeCell ref="AH2:AI4"/>
-    <mergeCell ref="AJ2:AK4"/>
-    <mergeCell ref="AL2:AM4"/>
-    <mergeCell ref="AN2:AO4"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+  <mergeCells count="173">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE4"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:T5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="AQ11:AR11"/>
     <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="AQ14:AR14"/>
@@ -1862,38 +1860,126 @@
     <mergeCell ref="BC12:BD12"/>
     <mergeCell ref="BE12:BF12"/>
     <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;9&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;9&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;9&amp;D　&amp;T　
 page&amp;P</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="45" max="16383" man="1"/>
+    <brk id="48" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="41" max="1048575" man="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UK\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5322F45B-D44F-4633-A75C-4F454CA00843}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA346B-B3D5-4E90-9899-233B5A4BE5E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$BJ$17</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +117,18 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -626,7 +641,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -644,7 +659,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -655,45 +669,15 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -712,6 +696,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -724,38 +756,119 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -763,94 +876,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,15 +907,6 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,6 +926,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1222,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="AW17" sqref="AW17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1232,15 +1258,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="45" t="s">
         <v>2</v>
       </c>
@@ -1256,148 +1282,148 @@
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
       <c r="T1" s="47"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="14"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="21"/>
       <c r="AS1" s="12"/>
       <c r="AT1" s="13"/>
       <c r="AU1" s="12"/>
       <c r="AV1" s="13"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="10"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="9"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="45" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="45" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="15"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="22"/>
       <c r="AS2" s="12"/>
       <c r="AT2" s="13"/>
       <c r="AU2" s="12"/>
       <c r="AV2" s="13"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="10"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="9"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="44"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="58"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
       <c r="AW4" s="48"/>
       <c r="AX4" s="49"/>
       <c r="AY4" s="48"/>
@@ -1411,55 +1437,55 @@
       <c r="BG4" s="48"/>
       <c r="BH4" s="49"/>
       <c r="BI4" s="48"/>
-      <c r="BJ4" s="54"/>
+      <c r="BJ4" s="61"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="53"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="73"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="60"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="25"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
       <c r="AW5" s="48"/>
       <c r="AX5" s="49"/>
       <c r="AY5" s="48"/>
@@ -1473,51 +1499,51 @@
       <c r="BG5" s="48"/>
       <c r="BH5" s="49"/>
       <c r="BI5" s="48"/>
-      <c r="BJ5" s="54"/>
+      <c r="BJ5" s="61"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="57"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="62"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="48"/>
       <c r="D7" s="49"/>
       <c r="E7" s="48"/>
@@ -1541,261 +1567,282 @@
       <c r="W7" s="48"/>
       <c r="X7" s="49"/>
       <c r="Y7" s="48"/>
-      <c r="Z7" s="54"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AQ7" s="45" t="s">
+      <c r="Z7" s="61"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AQ7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="47"/>
-      <c r="AW7" s="47"/>
-      <c r="AX7" s="45" t="s">
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="79"/>
+      <c r="AT7" s="79"/>
+      <c r="AU7" s="79"/>
+      <c r="AV7" s="79"/>
+      <c r="AW7" s="79"/>
+      <c r="AX7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="47"/>
-      <c r="BA7" s="47"/>
-      <c r="BB7" s="47"/>
-      <c r="BC7" s="47"/>
-      <c r="BD7" s="47"/>
-      <c r="BE7" s="47"/>
-      <c r="BF7" s="47"/>
-      <c r="BG7" s="47"/>
-      <c r="BH7" s="47"/>
-      <c r="BI7" s="47"/>
-      <c r="BJ7" s="47"/>
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="79"/>
+      <c r="BA7" s="79"/>
+      <c r="BB7" s="79"/>
+      <c r="BC7" s="79"/>
+      <c r="BD7" s="79"/>
+      <c r="BE7" s="79"/>
+      <c r="BF7" s="79"/>
+      <c r="BG7" s="79"/>
+      <c r="BH7" s="79"/>
+      <c r="BI7" s="79"/>
+      <c r="BJ7" s="79"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
     </row>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="50"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="30"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="22" t="s">
+      <c r="V9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="W9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="X9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="23"/>
-      <c r="AQ9" s="45" t="s">
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="35"/>
+      <c r="AQ9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="47"/>
-      <c r="AV9" s="45" t="s">
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="79"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="47"/>
-      <c r="AY9" s="47"/>
-      <c r="AZ9" s="47"/>
-      <c r="BA9" s="45" t="s">
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="79"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="46"/>
-      <c r="BD9" s="47"/>
-      <c r="BE9" s="47"/>
-      <c r="BF9" s="47"/>
-      <c r="BG9" s="45" t="s">
+      <c r="BB9" s="78"/>
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="79"/>
+      <c r="BE9" s="79"/>
+      <c r="BF9" s="79"/>
+      <c r="BG9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="46"/>
-      <c r="BI9" s="47"/>
-      <c r="BJ9" s="47"/>
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="79"/>
+      <c r="BJ9" s="79"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="37" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="52"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="59"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="18" t="s">
+      <c r="V10" s="31"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="20"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="34"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="AQ11" s="60" t="s">
+      <c r="AQ11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="61"/>
+      <c r="AR11" s="65"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="81"/>
-      <c r="AZ11" s="81"/>
-      <c r="BA11" s="81"/>
-      <c r="BB11" s="81"/>
-      <c r="BC11" s="81"/>
-      <c r="BD11" s="82"/>
-      <c r="BE11" s="83"/>
-      <c r="BF11" s="84"/>
-      <c r="BG11" s="83"/>
-      <c r="BH11" s="84"/>
-      <c r="BI11" s="83"/>
-      <c r="BJ11" s="85"/>
+      <c r="AY11" s="86"/>
+      <c r="AZ11" s="86"/>
+      <c r="BA11" s="86"/>
+      <c r="BB11" s="86"/>
+      <c r="BC11" s="86"/>
+      <c r="BD11" s="87"/>
+      <c r="BE11" s="88"/>
+      <c r="BF11" s="89"/>
+      <c r="BG11" s="88"/>
+      <c r="BH11" s="89"/>
+      <c r="BI11" s="88"/>
+      <c r="BJ11" s="90"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ12" s="75"/>
-      <c r="AR12" s="75"/>
+      <c r="AQ12" s="80"/>
+      <c r="AR12" s="80"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="76"/>
-      <c r="BC12" s="76"/>
-      <c r="BD12" s="77"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="79"/>
-      <c r="BG12" s="78"/>
-      <c r="BH12" s="79"/>
-      <c r="BI12" s="78"/>
-      <c r="BJ12" s="80"/>
+      <c r="AY12" s="81"/>
+      <c r="AZ12" s="81"/>
+      <c r="BA12" s="81"/>
+      <c r="BB12" s="81"/>
+      <c r="BC12" s="81"/>
+      <c r="BD12" s="82"/>
+      <c r="BE12" s="83"/>
+      <c r="BF12" s="84"/>
+      <c r="BG12" s="83"/>
+      <c r="BH12" s="84"/>
+      <c r="BI12" s="83"/>
+      <c r="BJ12" s="85"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="63"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="67"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ15" s="64"/>
-      <c r="AR15" s="65"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="69"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="67"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="71"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1">
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="69"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
@@ -1803,30 +1850,10 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="BG12:BH12"/>
     <mergeCell ref="BI12:BJ12"/>
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BE5:BF5"/>
@@ -1836,9 +1863,10 @@
     <mergeCell ref="BA11:BB11"/>
     <mergeCell ref="BC11:BD11"/>
     <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:Y9"/>
     <mergeCell ref="AQ11:AR11"/>
     <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="AQ14:AR14"/>
@@ -1859,17 +1887,6 @@
     <mergeCell ref="BA12:BB12"/>
     <mergeCell ref="BC12:BD12"/>
     <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA8:AE8"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="Y7:Z7"/>
@@ -1881,12 +1898,7 @@
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="AD4:AE4"/>
     <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:T1"/>
     <mergeCell ref="V8:Z8"/>
@@ -1905,10 +1917,12 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:D9"/>
@@ -1925,15 +1939,30 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA8:AE8"/>
     <mergeCell ref="AF8:AK8"/>
     <mergeCell ref="AL8:AO8"/>
     <mergeCell ref="AF5:AG7"/>
@@ -1943,16 +1972,9 @@
     <mergeCell ref="AN5:AO7"/>
     <mergeCell ref="AR1:AR2"/>
     <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BA1:BB1"/>
@@ -1969,6 +1991,10 @@
     <mergeCell ref="BA2:BB2"/>
     <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -1979,7 +2005,7 @@
 page&amp;P</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="48" max="16383" man="1"/>
+    <brk id="50" max="61" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="41" max="1048575" man="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UK\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA346B-B3D5-4E90-9899-233B5A4BE5E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EEE838-8FF4-45B5-B727-F946CCF33F1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$BJ$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -609,17 +609,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,7 +630,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -659,275 +648,278 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1249,7 +1241,7 @@
   <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:T2"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1257,614 +1249,673 @@
     <col min="1" max="16384" width="3.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:62" ht="9.75" customHeight="1">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="9"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="88"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="86"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="86"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="89"/>
     </row>
-    <row r="2" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:62" ht="9.75" customHeight="1">
+      <c r="A2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="9"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="86"/>
+      <c r="BC2" s="85"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="85"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="85"/>
+      <c r="BJ2" s="89"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="58"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="49"/>
-      <c r="BE4" s="48"/>
-      <c r="BF4" s="49"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="49"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="61"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="64"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="12"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="54" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="60"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AQ5" s="75"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="49"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="49"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="61"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="77"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="12"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="62"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="60"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="93"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="61"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AQ7" s="11" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="12"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AQ7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="79"/>
-      <c r="AT7" s="79"/>
-      <c r="AU7" s="79"/>
-      <c r="AV7" s="79"/>
-      <c r="AW7" s="79"/>
-      <c r="AX7" s="11" t="s">
+      <c r="AR7" s="55"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="79"/>
-      <c r="BA7" s="79"/>
-      <c r="BB7" s="79"/>
-      <c r="BC7" s="79"/>
-      <c r="BD7" s="79"/>
-      <c r="BE7" s="79"/>
-      <c r="BF7" s="79"/>
-      <c r="BG7" s="79"/>
-      <c r="BH7" s="79"/>
-      <c r="BI7" s="79"/>
-      <c r="BJ7" s="79"/>
+      <c r="AY7" s="55"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="79"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
     </row>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="30"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="72"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="27" t="s">
+      <c r="V9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="26" t="s">
+      <c r="X9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="35"/>
-      <c r="AQ9" s="11" t="s">
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="75"/>
+      <c r="AQ9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="79"/>
-      <c r="AT9" s="79"/>
-      <c r="AU9" s="79"/>
-      <c r="AV9" s="11" t="s">
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="79"/>
-      <c r="AY9" s="79"/>
-      <c r="AZ9" s="79"/>
-      <c r="BA9" s="11" t="s">
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="56"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="78"/>
-      <c r="BC9" s="78"/>
-      <c r="BD9" s="79"/>
-      <c r="BE9" s="79"/>
-      <c r="BF9" s="79"/>
-      <c r="BG9" s="11" t="s">
+      <c r="BB9" s="55"/>
+      <c r="BC9" s="55"/>
+      <c r="BD9" s="56"/>
+      <c r="BE9" s="56"/>
+      <c r="BF9" s="56"/>
+      <c r="BG9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="78"/>
-      <c r="BI9" s="79"/>
-      <c r="BJ9" s="79"/>
+      <c r="BH9" s="55"/>
+      <c r="BI9" s="56"/>
+      <c r="BJ9" s="56"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="59"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="76"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="32" t="s">
+      <c r="V10" s="73"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="74"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="AQ11" s="64" t="s">
+      <c r="AQ11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="65"/>
+      <c r="AR11" s="40"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="86"/>
-      <c r="AZ11" s="86"/>
-      <c r="BA11" s="86"/>
-      <c r="BB11" s="86"/>
-      <c r="BC11" s="86"/>
-      <c r="BD11" s="87"/>
-      <c r="BE11" s="88"/>
-      <c r="BF11" s="89"/>
-      <c r="BG11" s="88"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="88"/>
-      <c r="BJ11" s="90"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="32"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="15"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ12" s="80"/>
-      <c r="AR12" s="80"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="81"/>
-      <c r="AZ12" s="81"/>
-      <c r="BA12" s="81"/>
-      <c r="BB12" s="81"/>
-      <c r="BC12" s="81"/>
-      <c r="BD12" s="82"/>
-      <c r="BE12" s="83"/>
-      <c r="BF12" s="84"/>
-      <c r="BG12" s="83"/>
-      <c r="BH12" s="84"/>
-      <c r="BI12" s="83"/>
-      <c r="BJ12" s="85"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="28"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="30"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="67"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="42"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="69"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="44"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ16" s="70"/>
-      <c r="AR16" s="71"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="46"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1">
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="73"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="AQ11:AR11"/>
@@ -1889,112 +1940,53 @@
     <mergeCell ref="BE12:BF12"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
     <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="AS5:AT5"/>
     <mergeCell ref="AU5:AV5"/>
     <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\02_UK\GIT\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UK\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EEE838-8FF4-45B5-B727-F946CCF33F1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$BJ$17</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,12 +75,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,10 +112,22 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
   <fills count="5">
@@ -150,15 +166,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="dotted">
         <color indexed="64"/>
       </right>
@@ -602,6 +609,17 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -612,7 +630,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -623,26 +641,29 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,222 +674,259 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 3" xfId="1"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,494 +1237,536 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.125" style="6"/>
+    <col min="1" max="16384" width="3.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:62" ht="9.75" customHeight="1">
+      <c r="A1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="88"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="86"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="86"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="89"/>
+    </row>
+    <row r="2" spans="1:62" ht="9.75" customHeight="1">
+      <c r="A2" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="86"/>
+      <c r="BC2" s="85"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="85"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="85"/>
+      <c r="BJ2" s="89"/>
+    </row>
+    <row r="3" spans="1:62" ht="9.75" customHeight="1">
+      <c r="A3" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+    </row>
+    <row r="4" spans="1:62" ht="9.75" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="47" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="65"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="82"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="82"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="82"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="82"/>
-      <c r="BJ1" s="84"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="64"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="12"/>
     </row>
-    <row r="2" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="16" t="s">
+    <row r="5" spans="1:62" ht="9.75" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="63"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="82"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="83"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="83"/>
-      <c r="BI2" s="82"/>
-      <c r="BJ2" s="84"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="77"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="12"/>
     </row>
-    <row r="3" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="51"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
+    <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="60"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
     </row>
-    <row r="4" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="10"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="10"/>
+    <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="12"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AQ7" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="55"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="55"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
     </row>
-    <row r="5" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="32" t="s">
+    <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="U8" s="1"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="79"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
+    </row>
+    <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A9" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="69"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="75"/>
+      <c r="AQ9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="32" t="s">
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="32" t="s">
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="56"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="71" t="s">
+      <c r="BB9" s="55"/>
+      <c r="BC9" s="55"/>
+      <c r="BD9" s="56"/>
+      <c r="BE9" s="56"/>
+      <c r="BF9" s="56"/>
+      <c r="BG9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="73"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="10"/>
+      <c r="BH9" s="55"/>
+      <c r="BI9" s="56"/>
+      <c r="BJ9" s="56"/>
     </row>
-    <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="X6" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="79"/>
+    <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="33"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="74"/>
     </row>
-    <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="78"/>
-      <c r="AQ7" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="34"/>
-      <c r="AT7" s="34"/>
-      <c r="AU7" s="34"/>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="34"/>
-      <c r="AX7" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="34"/>
-      <c r="BB7" s="34"/>
-      <c r="BC7" s="34"/>
-      <c r="BD7" s="34"/>
-      <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
-    </row>
-    <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AQ9" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB9" s="33"/>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="34"/>
-    </row>
-    <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AQ11" s="18" t="s">
+    <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="AQ11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="19"/>
+      <c r="AR11" s="40"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="12"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="32"/>
       <c r="BE11" s="13"/>
       <c r="BF11" s="14"/>
       <c r="BG11" s="13"/>
@@ -1674,48 +1774,46 @@
       <c r="BI11" s="13"/>
       <c r="BJ11" s="15"/>
     </row>
-    <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
+    <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
-      <c r="AY12" s="36"/>
-      <c r="AZ12" s="36"/>
-      <c r="BA12" s="36"/>
-      <c r="BB12" s="36"/>
-      <c r="BC12" s="36"/>
-      <c r="BD12" s="37"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="38"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="38"/>
-      <c r="BJ12" s="40"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="28"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="30"/>
     </row>
-    <row r="14" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="21"/>
+    <row r="14" spans="1:62" ht="9.75" customHeight="1">
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="42"/>
     </row>
-    <row r="15" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="23"/>
+    <row r="15" spans="1:62" ht="9.75" customHeight="1">
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="44"/>
     </row>
-    <row r="16" spans="1:62" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="25"/>
+    <row r="16" spans="1:62" ht="9.75" customHeight="1">
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="46"/>
     </row>
-    <row r="17" spans="43:44" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="27"/>
+    <row r="17" spans="43:44" ht="9.75" customHeight="1">
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="169">
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
+  <mergeCells count="173">
     <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="BE2:BF2"/>
@@ -1723,6 +1821,8 @@
     <mergeCell ref="BA2:BB2"/>
     <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H2:M2"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="AS2:AT2"/>
     <mergeCell ref="BE1:BF1"/>
@@ -1732,115 +1832,92 @@
     <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
     <mergeCell ref="AR1:AR2"/>
     <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AF2:AG4"/>
-    <mergeCell ref="AH2:AI4"/>
-    <mergeCell ref="AJ2:AK4"/>
-    <mergeCell ref="AL2:AM4"/>
-    <mergeCell ref="AN2:AO4"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE4"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:T5"/>
-    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:Y9"/>
     <mergeCell ref="AQ11:AR11"/>
     <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="AQ14:AR14"/>
@@ -1861,39 +1938,66 @@
     <mergeCell ref="BA12:BB12"/>
     <mergeCell ref="BC12:BD12"/>
     <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="BG12:BH12"/>
     <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
     <mergeCell ref="AY11:AZ11"/>
     <mergeCell ref="BA11:BB11"/>
     <mergeCell ref="BC11:BD11"/>
     <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
     <mergeCell ref="BI4:BJ4"/>
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="AW5:AX5"/>
     <mergeCell ref="AY5:AZ5"/>
     <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;9&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;9&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;9&amp;D　&amp;T　
 page&amp;P</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="45" max="16383" man="1"/>
+    <brk id="50" max="61" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="41" max="1048575" man="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UK\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UK\Source Code\sb\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EEE838-8FF4-45B5-B727-F946CCF33F1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E09A990-F3F3-412D-A540-6B3AAF1D04AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +129,15 @@
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +162,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -193,21 +206,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,80 +443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -622,15 +546,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -641,289 +603,254 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="25" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="35" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="36" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1240,647 +1167,655 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="BE15" sqref="BE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.140625" style="6"/>
+    <col min="1" max="16384" width="3.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="90" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="88"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="88"/>
-      <c r="AW1" s="85"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="85"/>
-      <c r="BB1" s="86"/>
-      <c r="BC1" s="85"/>
-      <c r="BD1" s="86"/>
-      <c r="BE1" s="85"/>
-      <c r="BF1" s="86"/>
-      <c r="BG1" s="85"/>
-      <c r="BH1" s="86"/>
-      <c r="BI1" s="85"/>
-      <c r="BJ1" s="89"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="7"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="86"/>
-      <c r="BC2" s="85"/>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="85"/>
-      <c r="BH2" s="86"/>
-      <c r="BI2" s="85"/>
-      <c r="BJ2" s="89"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="7"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="64"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="7"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="40"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="6"/>
       <c r="AX4" s="8"/>
-      <c r="AY4" s="7"/>
+      <c r="AY4" s="6"/>
       <c r="AZ4" s="8"/>
-      <c r="BA4" s="7"/>
+      <c r="BA4" s="6"/>
       <c r="BB4" s="8"/>
-      <c r="BC4" s="7"/>
+      <c r="BC4" s="6"/>
       <c r="BD4" s="8"/>
-      <c r="BE4" s="7"/>
+      <c r="BE4" s="6"/>
       <c r="BF4" s="8"/>
-      <c r="BG4" s="7"/>
+      <c r="BG4" s="6"/>
       <c r="BH4" s="8"/>
-      <c r="BI4" s="7"/>
-      <c r="BJ4" s="12"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="7"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="77"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="7"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="43"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="6"/>
       <c r="AX5" s="8"/>
-      <c r="AY5" s="7"/>
+      <c r="AY5" s="6"/>
       <c r="AZ5" s="8"/>
-      <c r="BA5" s="7"/>
+      <c r="BA5" s="6"/>
       <c r="BB5" s="8"/>
-      <c r="BC5" s="7"/>
+      <c r="BC5" s="6"/>
       <c r="BD5" s="8"/>
-      <c r="BE5" s="7"/>
+      <c r="BE5" s="6"/>
       <c r="BF5" s="8"/>
-      <c r="BG5" s="7"/>
+      <c r="BG5" s="6"/>
       <c r="BH5" s="8"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="12"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="7"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="60"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="42"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="12"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AQ7" s="54" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="41"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AQ7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56"/>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="54" t="s">
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="54"/>
+      <c r="AX7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="55"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="56"/>
-      <c r="BB7" s="56"/>
-      <c r="BC7" s="56"/>
-      <c r="BD7" s="56"/>
-      <c r="BE7" s="56"/>
-      <c r="BF7" s="56"/>
-      <c r="BG7" s="56"/>
-      <c r="BH7" s="56"/>
-      <c r="BI7" s="56"/>
-      <c r="BJ7" s="56"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="54"/>
+      <c r="BA7" s="54"/>
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="54"/>
+      <c r="BD7" s="54"/>
+      <c r="BE7" s="54"/>
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="54"/>
+      <c r="BH7" s="54"/>
+      <c r="BI7" s="54"/>
+      <c r="BJ7" s="54"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="80"/>
-      <c r="AO8" s="80"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
     </row>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="72"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="64"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="38" t="s">
+      <c r="V9" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="W9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="37" t="s">
+      <c r="X9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="75"/>
-      <c r="AQ9" s="54" t="s">
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="70"/>
+      <c r="AQ9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="56"/>
-      <c r="AT9" s="56"/>
-      <c r="AU9" s="56"/>
-      <c r="AV9" s="54" t="s">
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="55"/>
-      <c r="AX9" s="56"/>
-      <c r="AY9" s="56"/>
-      <c r="AZ9" s="56"/>
-      <c r="BA9" s="54" t="s">
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="54"/>
+      <c r="AY9" s="54"/>
+      <c r="AZ9" s="54"/>
+      <c r="BA9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="55"/>
-      <c r="BC9" s="55"/>
-      <c r="BD9" s="56"/>
-      <c r="BE9" s="56"/>
-      <c r="BF9" s="56"/>
-      <c r="BG9" s="54" t="s">
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="54"/>
+      <c r="BE9" s="54"/>
+      <c r="BF9" s="54"/>
+      <c r="BG9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="55"/>
-      <c r="BI9" s="56"/>
-      <c r="BJ9" s="56"/>
+      <c r="BH9" s="53"/>
+      <c r="BI9" s="54"/>
+      <c r="BJ9" s="54"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="70" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="76"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="68"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="33" t="s">
+      <c r="V10" s="71"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="33"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="68"/>
       <c r="AO10" s="74"/>
     </row>
-    <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="AQ11" s="39" t="s">
+    <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
+      <c r="AQ11" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="40"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="13"/>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="13"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="15"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="76"/>
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="77"/>
+      <c r="BA11" s="77"/>
+      <c r="BB11" s="77"/>
+      <c r="BC11" s="77"/>
+      <c r="BD11" s="78"/>
+      <c r="BE11" s="79"/>
+      <c r="BF11" s="80"/>
+      <c r="BG11" s="79"/>
+      <c r="BH11" s="80"/>
+      <c r="BI11" s="79"/>
+      <c r="BJ11" s="81"/>
     </row>
-    <row r="12" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="28"/>
-      <c r="BF12" s="29"/>
-      <c r="BG12" s="28"/>
-      <c r="BH12" s="29"/>
-      <c r="BI12" s="28"/>
-      <c r="BJ12" s="30"/>
+    <row r="12" spans="1:62" ht="9.75" customHeight="1">
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="84"/>
+      <c r="BD12" s="85"/>
+      <c r="BE12" s="86"/>
+      <c r="BF12" s="85"/>
+      <c r="BG12" s="86"/>
+      <c r="BH12" s="85"/>
+      <c r="BI12" s="86"/>
+      <c r="BJ12" s="84"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="42"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="45"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ15" s="43"/>
-      <c r="AR15" s="44"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="47"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="46"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="49"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1">
-      <c r="AQ17" s="47"/>
-      <c r="AR17" s="48"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:T1"/>
     <mergeCell ref="V8:Z8"/>
@@ -1905,88 +1840,80 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="AB10:AC10"/>
     <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UK\Source Code\sb\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E09A990-F3F3-412D-A540-6B3AAF1D04AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BAB0E4-3BC4-4DDF-8E72-ED0419054AC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,12 +101,6 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -137,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,18 +146,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -590,9 +572,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -605,32 +587,188 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -641,212 +779,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="25" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="35" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="36" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1167,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="BE15" sqref="BE15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10:AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1177,106 +1135,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="7"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="15"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="7"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="15"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1295,492 +1253,550 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="40"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="7"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="74"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="15"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="35" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="43"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="6"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="7"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="74"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="15"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="42"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="41"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="29"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="13"/>
       <c r="Z7" s="41"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AQ7" s="52" t="s">
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AQ7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="52" t="s">
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="36"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
     </row>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="64"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="59"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="69" t="s">
+      <c r="V9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="63" t="s">
+      <c r="W9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="64" t="s">
+      <c r="X9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="70"/>
-      <c r="AQ9" s="52" t="s">
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="65"/>
+      <c r="AQ9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="52" t="s">
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="52" t="s">
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="53"/>
-      <c r="BC9" s="53"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="52" t="s">
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36"/>
+      <c r="BG9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="53"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="36"/>
+      <c r="BJ9" s="36"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="68"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="62"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="68" t="s">
+      <c r="V10" s="61"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="68"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="68"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="74"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="63"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="64"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="75" t="s">
+      <c r="AQ11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="75"/>
-      <c r="AS11" s="76"/>
-      <c r="AT11" s="76"/>
-      <c r="AU11" s="76"/>
-      <c r="AV11" s="76"/>
-      <c r="AW11" s="76"/>
-      <c r="AX11" s="76"/>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="77"/>
-      <c r="BA11" s="77"/>
-      <c r="BB11" s="77"/>
-      <c r="BC11" s="77"/>
-      <c r="BD11" s="78"/>
-      <c r="BE11" s="79"/>
-      <c r="BF11" s="80"/>
-      <c r="BG11" s="79"/>
-      <c r="BH11" s="80"/>
-      <c r="BI11" s="79"/>
-      <c r="BJ11" s="81"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="19"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="19"/>
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="20"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="83"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="83"/>
-      <c r="AW12" s="83"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="85"/>
-      <c r="BE12" s="86"/>
-      <c r="BF12" s="85"/>
-      <c r="BG12" s="86"/>
-      <c r="BH12" s="85"/>
-      <c r="BI12" s="86"/>
-      <c r="BJ12" s="84"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="39"/>
+      <c r="BI12" s="40"/>
+      <c r="BJ12" s="38"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="45"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="23"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="47"/>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="25"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="49"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="27"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1">
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="51"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="AQ11:AR11"/>
     <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="AQ14:AR14"/>
@@ -1805,117 +1821,59 @@
     <mergeCell ref="BI12:BJ12"/>
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UK\Source Code\sb\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BAB0E4-3BC4-4DDF-8E72-ED0419054AC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -75,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -116,12 +110,16 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -587,20 +585,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -608,32 +603,65 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -657,18 +685,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,138 +696,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 10" xfId="2"/>
+    <cellStyle name="標準 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1115,18 +1113,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10:AC10"/>
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1135,106 +1133,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="15"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="7"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="15"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="7"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1253,257 +1251,257 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="74"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="15"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="52"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="7"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="72" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="74"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="15"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="52"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="7"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="41"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="43"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="41"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AQ7" s="34" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="43"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AQ7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="34" t="s">
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="42"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
     </row>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -1512,227 +1510,308 @@
       <c r="B9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
       <c r="T9" s="59"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="57" t="s">
+      <c r="W9" s="58" t="s">
         <v>8</v>
       </c>
       <c r="X9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="60"/>
+      <c r="Y9" s="61"/>
       <c r="Z9" s="59"/>
-      <c r="AA9" s="60"/>
+      <c r="AA9" s="61"/>
       <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
+      <c r="AC9" s="61"/>
       <c r="AD9" s="59"/>
-      <c r="AE9" s="60"/>
+      <c r="AE9" s="61"/>
       <c r="AF9" s="59"/>
-      <c r="AG9" s="60"/>
+      <c r="AG9" s="61"/>
       <c r="AH9" s="59"/>
-      <c r="AI9" s="60"/>
+      <c r="AI9" s="61"/>
       <c r="AJ9" s="59"/>
-      <c r="AK9" s="60"/>
+      <c r="AK9" s="61"/>
       <c r="AL9" s="59"/>
-      <c r="AM9" s="60"/>
+      <c r="AM9" s="61"/>
       <c r="AN9" s="59"/>
-      <c r="AO9" s="65"/>
-      <c r="AQ9" s="34" t="s">
+      <c r="AO9" s="62"/>
+      <c r="AQ9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="34" t="s">
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="34" t="s">
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="35"/>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="36"/>
-      <c r="BE9" s="36"/>
-      <c r="BF9" s="36"/>
-      <c r="BG9" s="34" t="s">
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42"/>
+      <c r="BG9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="36"/>
-      <c r="BJ9" s="36"/>
+      <c r="BH9" s="41"/>
+      <c r="BI9" s="42"/>
+      <c r="BJ9" s="42"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="A10" s="54"/>
       <c r="B10" s="56"/>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="62"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="60"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="62" t="s">
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="63"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="63"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="66"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="21" t="s">
+      <c r="AQ11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="16"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="18"/>
-      <c r="BF11" s="19"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="19"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="20"/>
+      <c r="AR11" s="67"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="68"/>
+      <c r="AU11" s="68"/>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="68"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
+      <c r="BC11" s="69"/>
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="71"/>
+      <c r="BF11" s="72"/>
+      <c r="BG11" s="71"/>
+      <c r="BH11" s="72"/>
+      <c r="BI11" s="71"/>
+      <c r="BJ11" s="73"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="40"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="40"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="40"/>
-      <c r="BJ12" s="38"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="75"/>
+      <c r="AU12" s="75"/>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="75"/>
+      <c r="AX12" s="75"/>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
+      <c r="BD12" s="77"/>
+      <c r="BE12" s="78"/>
+      <c r="BF12" s="77"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="77"/>
+      <c r="BI12" s="78"/>
+      <c r="BJ12" s="76"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="22"/>
-      <c r="AR14" s="23"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="33"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="25"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="35"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="27"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="37"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1">
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="29"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
@@ -1757,121 +1836,40 @@
     <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="AB10:AC10"/>
     <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -585,32 +585,206 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -619,189 +793,6 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1113,7 +1104,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1124,7 +1115,7 @@
   <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1133,106 +1124,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="7"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="25"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="7"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="25"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1251,433 +1242,433 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="52"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="7"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="18"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="25"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="52"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="6"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="7"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="18"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="25"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="43"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="43"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AQ7" s="40" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="16"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AQ7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="40" t="s">
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="42"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="46"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="46"/>
+      <c r="BG7" s="46"/>
+      <c r="BH7" s="46"/>
+      <c r="BI7" s="46"/>
+      <c r="BJ7" s="46"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
     </row>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="59"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="65"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="61" t="s">
+      <c r="V9" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="58" t="s">
+      <c r="W9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="59" t="s">
+      <c r="X9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="59"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="62"/>
-      <c r="AQ9" s="40" t="s">
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="71"/>
+      <c r="AQ9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="40" t="s">
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="41"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="40" t="s">
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="41"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42"/>
-      <c r="BG9" s="40" t="s">
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="46"/>
+      <c r="BG9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="46"/>
+      <c r="BJ9" s="46"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="60"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="68"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="60" t="s">
+      <c r="V10" s="67"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="66"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="70"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="67" t="s">
+      <c r="AQ11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="67"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="68"/>
-      <c r="AU11" s="68"/>
-      <c r="AV11" s="68"/>
-      <c r="AW11" s="68"/>
-      <c r="AX11" s="68"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-      <c r="BC11" s="69"/>
-      <c r="BD11" s="70"/>
-      <c r="BE11" s="71"/>
-      <c r="BF11" s="72"/>
-      <c r="BG11" s="71"/>
-      <c r="BH11" s="72"/>
-      <c r="BI11" s="71"/>
-      <c r="BJ11" s="73"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
+      <c r="BB11" s="26"/>
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="27"/>
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="29"/>
+      <c r="BG11" s="28"/>
+      <c r="BH11" s="29"/>
+      <c r="BI11" s="28"/>
+      <c r="BJ11" s="30"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="74"/>
-      <c r="AS12" s="75"/>
-      <c r="AT12" s="75"/>
-      <c r="AU12" s="75"/>
-      <c r="AV12" s="75"/>
-      <c r="AW12" s="75"/>
-      <c r="AX12" s="75"/>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="76"/>
-      <c r="BC12" s="76"/>
-      <c r="BD12" s="77"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="77"/>
-      <c r="BG12" s="78"/>
-      <c r="BH12" s="77"/>
-      <c r="BI12" s="78"/>
-      <c r="BJ12" s="76"/>
+      <c r="AQ12" s="47"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="50"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="48"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
       <c r="AQ14" s="32"/>
@@ -1697,57 +1688,104 @@
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="AQ11:AR11"/>
     <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="AQ14:AR14"/>
@@ -1772,104 +1810,57 @@
     <mergeCell ref="BI12:BJ12"/>
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UK\Source Code\sb\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BAB0E4-3BC4-4DDF-8E72-ED0419054AC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -75,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -116,12 +110,16 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -574,7 +572,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -587,10 +585,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,6 +597,12 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -611,28 +615,52 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -680,19 +708,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,15 +729,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -728,46 +744,46 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="24" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -778,40 +794,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 10" xfId="2"/>
+    <cellStyle name="標準 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1115,18 +1104,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10:AC10"/>
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1135,36 +1124,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="12"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="14"/>
       <c r="AW1" s="8"/>
       <c r="AX1" s="9"/>
       <c r="AY1" s="8"/>
@@ -1178,41 +1167,41 @@
       <c r="BG1" s="8"/>
       <c r="BH1" s="9"/>
       <c r="BI1" s="8"/>
-      <c r="BJ1" s="15"/>
+      <c r="BJ1" s="25"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51" t="s">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="12"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="14"/>
       <c r="AW2" s="8"/>
       <c r="AX2" s="9"/>
       <c r="AY2" s="8"/>
@@ -1226,15 +1215,15 @@
       <c r="BG2" s="8"/>
       <c r="BH2" s="9"/>
       <c r="BI2" s="8"/>
-      <c r="BJ2" s="15"/>
+      <c r="BJ2" s="25"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1253,54 +1242,54 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="74"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="12"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="18"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="14"/>
       <c r="AW4" s="8"/>
       <c r="AX4" s="9"/>
       <c r="AY4" s="8"/>
@@ -1314,55 +1303,55 @@
       <c r="BG4" s="8"/>
       <c r="BH4" s="9"/>
       <c r="BI4" s="8"/>
-      <c r="BJ4" s="15"/>
+      <c r="BJ4" s="25"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="72" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="74"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="18"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="14"/>
       <c r="AW5" s="8"/>
       <c r="AX5" s="9"/>
       <c r="AY5" s="8"/>
@@ -1376,326 +1365,326 @@
       <c r="BG5" s="8"/>
       <c r="BH5" s="9"/>
       <c r="BI5" s="8"/>
-      <c r="BJ5" s="15"/>
+      <c r="BJ5" s="25"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="41"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="41"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AQ7" s="34" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="16"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AQ7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="34" t="s">
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="46"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="46"/>
+      <c r="BG7" s="46"/>
+      <c r="BH7" s="46"/>
+      <c r="BI7" s="46"/>
+      <c r="BJ7" s="46"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
     </row>
     <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="59"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="65"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="57" t="s">
+      <c r="W9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="59" t="s">
+      <c r="X9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="59"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="65"/>
-      <c r="AQ9" s="34" t="s">
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="71"/>
+      <c r="AQ9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="34" t="s">
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="34" t="s">
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="35"/>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="36"/>
-      <c r="BE9" s="36"/>
-      <c r="BF9" s="36"/>
-      <c r="BG9" s="34" t="s">
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="46"/>
+      <c r="BG9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="36"/>
-      <c r="BJ9" s="36"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="46"/>
+      <c r="BJ9" s="46"/>
     </row>
     <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="62"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="68"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="62" t="s">
+      <c r="V10" s="67"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="63"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="63"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="64"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="70"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="21" t="s">
+      <c r="AQ11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="21"/>
+      <c r="AR11" s="31"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="16"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="18"/>
-      <c r="BF11" s="19"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="19"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="20"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
+      <c r="BB11" s="26"/>
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="27"/>
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="29"/>
+      <c r="BG11" s="28"/>
+      <c r="BH11" s="29"/>
+      <c r="BI11" s="28"/>
+      <c r="BJ11" s="30"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="37"/>
+      <c r="AQ12" s="47"/>
+      <c r="AR12" s="47"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="40"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="40"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="40"/>
-      <c r="BJ12" s="38"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="50"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="48"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="22"/>
-      <c r="AR14" s="23"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="33"/>
     </row>
     <row r="15" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="25"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="35"/>
     </row>
     <row r="16" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="27"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="37"/>
     </row>
     <row r="17" spans="43:44" ht="9.75" customHeight="1">
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="29"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="173">

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\KWR002 Sua excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$BJ$17</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,8 +74,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +133,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -149,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -361,17 +373,6 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -559,6 +560,62 @@
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -572,7 +629,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -585,17 +642,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -607,10 +664,10 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -625,30 +682,33 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -657,10 +717,7 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +726,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -684,20 +744,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -717,7 +774,7 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,13 +786,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,7 +816,10 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -768,32 +828,32 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1104,7 +1164,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1114,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1434,6 +1494,8 @@
       <c r="X7" s="17"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="16"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
@@ -1494,7 +1556,7 @@
       <c r="AN8" s="75"/>
       <c r="AO8" s="75"/>
     </row>
-    <row r="9" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
       <c r="A9" s="59" t="s">
         <v>7</v>
       </c>
@@ -1520,34 +1582,34 @@
       <c r="Q9" s="63"/>
       <c r="R9" s="63"/>
       <c r="S9" s="63"/>
-      <c r="T9" s="65"/>
+      <c r="T9" s="66"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="66" t="s">
+      <c r="V9" s="67" t="s">
         <v>7</v>
       </c>
       <c r="W9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="65" t="s">
+      <c r="X9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="71"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="69"/>
       <c r="AQ9" s="44" t="s">
         <v>3</v>
       </c>
@@ -1577,10 +1639,10 @@
       <c r="BI9" s="46"/>
       <c r="BJ9" s="46"/>
     </row>
-    <row r="10" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
       <c r="A10" s="60"/>
       <c r="B10" s="62"/>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="64"/>
@@ -1599,30 +1661,30 @@
       <c r="Q10" s="64"/>
       <c r="R10" s="64"/>
       <c r="S10" s="64"/>
-      <c r="T10" s="68"/>
+      <c r="T10" s="70"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="67"/>
+      <c r="V10" s="68"/>
       <c r="W10" s="72"/>
-      <c r="X10" s="68" t="s">
+      <c r="X10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="68"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="68"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="70"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
       <c r="AQ11" s="31" t="s">
@@ -1674,20 +1736,20 @@
       <c r="AQ14" s="32"/>
       <c r="AR14" s="33"/>
     </row>
-    <row r="15" spans="1:62" ht="9.75" customHeight="1">
+    <row r="15" spans="1:62" ht="11.45" customHeight="1">
       <c r="AQ15" s="34"/>
       <c r="AR15" s="35"/>
     </row>
-    <row r="16" spans="1:62" ht="9.75" customHeight="1">
+    <row r="16" spans="1:62" ht="11.45" customHeight="1">
       <c r="AQ16" s="36"/>
       <c r="AR16" s="37"/>
     </row>
-    <row r="17" spans="43:44" ht="9.75" customHeight="1">
+    <row r="17" spans="43:44" ht="11.45" customHeight="1">
       <c r="AQ17" s="38"/>
       <c r="AR17" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="173">
+  <mergeCells count="174">
     <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="BE2:BF2"/>
@@ -1722,6 +1784,7 @@
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
@@ -1867,8 +1930,8 @@
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;9&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;9&amp;D　&amp;T　
-page&amp;P</oddHeader>
+    <oddHeader>&amp;L&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
+&amp;=I18N.KWR002_210(bean)&amp;P</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="61" man="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -119,14 +119,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,8 +132,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +159,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -620,16 +625,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -642,107 +685,53 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -750,114 +739,184 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 10" xfId="2"/>
     <cellStyle name="標準 3" xfId="1"/>
@@ -1174,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7:AC7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="Y1" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="AX11" sqref="AX11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1184,107 +1243,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="51" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="25"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="11"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="25"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="6"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="11"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1302,555 +1361,509 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="18"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="25"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="46"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="64"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="63"/>
+      <c r="BJ4" s="72"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="18"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="25"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="46"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="63"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="63"/>
+      <c r="BF5" s="64"/>
+      <c r="BG5" s="63"/>
+      <c r="BH5" s="64"/>
+      <c r="BI5" s="63"/>
+      <c r="BJ5" s="72"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="16"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="80"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="16"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AQ7" s="44" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="80"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AQ7" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="44" t="s">
+      <c r="AR7" s="65"/>
+      <c r="AS7" s="65"/>
+      <c r="AT7" s="65"/>
+      <c r="AU7" s="65"/>
+      <c r="AV7" s="65"/>
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="46"/>
-      <c r="BF7" s="46"/>
-      <c r="BG7" s="46"/>
-      <c r="BH7" s="46"/>
-      <c r="BI7" s="46"/>
-      <c r="BJ7" s="46"/>
+      <c r="AY7" s="65"/>
+      <c r="AZ7" s="65"/>
+      <c r="BA7" s="65"/>
+      <c r="BB7" s="65"/>
+      <c r="BC7" s="65"/>
+      <c r="BD7" s="65"/>
+      <c r="BE7" s="65"/>
+      <c r="BF7" s="65"/>
+      <c r="BG7" s="65"/>
+      <c r="BH7" s="65"/>
+      <c r="BI7" s="65"/>
+      <c r="BJ7" s="65"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
     </row>
     <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="66"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="26"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="67" t="s">
+      <c r="V9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="63" t="s">
+      <c r="W9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="66" t="s">
+      <c r="X9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="69"/>
-      <c r="AQ9" s="44" t="s">
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="28"/>
+      <c r="AQ9" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="44" t="s">
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="46"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="44" t="s">
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="65"/>
+      <c r="AZ9" s="65"/>
+      <c r="BA9" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="46"/>
-      <c r="BF9" s="46"/>
-      <c r="BG9" s="44" t="s">
+      <c r="BB9" s="65"/>
+      <c r="BC9" s="65"/>
+      <c r="BD9" s="65"/>
+      <c r="BE9" s="65"/>
+      <c r="BF9" s="65"/>
+      <c r="BG9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="46"/>
-      <c r="BJ9" s="46"/>
+      <c r="BH9" s="65"/>
+      <c r="BI9" s="65"/>
+      <c r="BJ9" s="65"/>
     </row>
     <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="65" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="70"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="29"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="70" t="s">
+      <c r="V10" s="79"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="31" t="s">
+      <c r="AQ11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="26"/>
-      <c r="BD11" s="27"/>
-      <c r="BE11" s="28"/>
-      <c r="BF11" s="29"/>
-      <c r="BG11" s="28"/>
-      <c r="BH11" s="29"/>
-      <c r="BI11" s="28"/>
-      <c r="BJ11" s="30"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="73"/>
+      <c r="AZ11" s="73"/>
+      <c r="BA11" s="73"/>
+      <c r="BB11" s="73"/>
+      <c r="BC11" s="73"/>
+      <c r="BD11" s="74"/>
+      <c r="BE11" s="75"/>
+      <c r="BF11" s="76"/>
+      <c r="BG11" s="75"/>
+      <c r="BH11" s="76"/>
+      <c r="BI11" s="75"/>
+      <c r="BJ11" s="77"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="47"/>
-      <c r="AR12" s="47"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="49"/>
-      <c r="BE12" s="50"/>
-      <c r="BF12" s="49"/>
-      <c r="BG12" s="50"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="48"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="67"/>
+      <c r="AZ12" s="67"/>
+      <c r="BA12" s="67"/>
+      <c r="BB12" s="67"/>
+      <c r="BC12" s="67"/>
+      <c r="BD12" s="68"/>
+      <c r="BE12" s="69"/>
+      <c r="BF12" s="70"/>
+      <c r="BG12" s="69"/>
+      <c r="BH12" s="70"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="71"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="33"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="52"/>
     </row>
     <row r="15" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="35"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="54"/>
     </row>
     <row r="16" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="37"/>
+      <c r="AQ16" s="55"/>
+      <c r="AR16" s="56"/>
     </row>
     <row r="17" spans="43:44" ht="11.45" customHeight="1">
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="39"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="AQ14:AR14"/>
     <mergeCell ref="AQ15:AR17"/>
     <mergeCell ref="AQ4:AQ5"/>
@@ -1873,57 +1886,103 @@
     <mergeCell ref="BI12:BJ12"/>
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -15,7 +15,7 @@
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$BJ$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$AO$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -166,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -660,6 +660,15 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -672,7 +681,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -697,6 +706,9 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -910,9 +922,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
@@ -1233,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="Y1" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="AX11" sqref="AX11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y2:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1246,95 +1256,116 @@
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="11"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="12"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
       <c r="T2" s="6"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="11"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="12"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -1361,451 +1392,451 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="46"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="64"/>
-      <c r="BE4" s="63"/>
-      <c r="BF4" s="64"/>
-      <c r="BG4" s="63"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="63"/>
-      <c r="BJ4" s="72"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="47"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="65"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="65"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="65"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="65"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="73"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="46"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AQ5" s="60"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="63"/>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="63"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="63"/>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="64"/>
-      <c r="BE5" s="63"/>
-      <c r="BF5" s="64"/>
-      <c r="BG5" s="63"/>
-      <c r="BH5" s="64"/>
-      <c r="BI5" s="63"/>
-      <c r="BJ5" s="72"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="47"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="65"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="64"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="65"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="65"/>
+      <c r="BE5" s="64"/>
+      <c r="BF5" s="65"/>
+      <c r="BG5" s="64"/>
+      <c r="BH5" s="65"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="73"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="80"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="81"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="80"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AQ7" s="65" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="81"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AQ7" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65" t="s">
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="66"/>
+      <c r="AX7" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="65"/>
-      <c r="BC7" s="65"/>
-      <c r="BD7" s="65"/>
-      <c r="BE7" s="65"/>
-      <c r="BF7" s="65"/>
-      <c r="BG7" s="65"/>
-      <c r="BH7" s="65"/>
-      <c r="BI7" s="65"/>
-      <c r="BJ7" s="65"/>
+      <c r="AY7" s="66"/>
+      <c r="AZ7" s="66"/>
+      <c r="BA7" s="66"/>
+      <c r="BB7" s="66"/>
+      <c r="BC7" s="66"/>
+      <c r="BD7" s="66"/>
+      <c r="BE7" s="66"/>
+      <c r="BF7" s="66"/>
+      <c r="BG7" s="66"/>
+      <c r="BH7" s="66"/>
+      <c r="BI7" s="66"/>
+      <c r="BJ7" s="66"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
     </row>
     <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="26"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="27"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="27" t="s">
+      <c r="V9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="26" t="s">
+      <c r="X9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="28"/>
-      <c r="AQ9" s="65" t="s">
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="29"/>
+      <c r="AQ9" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65" t="s">
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65" t="s">
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="66"/>
+      <c r="BA9" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="65"/>
-      <c r="BC9" s="65"/>
-      <c r="BD9" s="65"/>
-      <c r="BE9" s="65"/>
-      <c r="BF9" s="65"/>
-      <c r="BG9" s="65" t="s">
+      <c r="BB9" s="66"/>
+      <c r="BC9" s="66"/>
+      <c r="BD9" s="66"/>
+      <c r="BE9" s="66"/>
+      <c r="BF9" s="66"/>
+      <c r="BG9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="65"/>
-      <c r="BI9" s="65"/>
-      <c r="BJ9" s="65"/>
+      <c r="BH9" s="66"/>
+      <c r="BI9" s="66"/>
+      <c r="BJ9" s="66"/>
     </row>
     <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="29"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="30"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="29" t="s">
+      <c r="V10" s="80"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="78" t="s">
+      <c r="AQ11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="78"/>
+      <c r="AR11" s="79"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
       <c r="AW11" s="7"/>
       <c r="AX11" s="7"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="73"/>
-      <c r="BA11" s="73"/>
-      <c r="BB11" s="73"/>
-      <c r="BC11" s="73"/>
-      <c r="BD11" s="74"/>
-      <c r="BE11" s="75"/>
-      <c r="BF11" s="76"/>
-      <c r="BG11" s="75"/>
-      <c r="BH11" s="76"/>
-      <c r="BI11" s="75"/>
-      <c r="BJ11" s="77"/>
+      <c r="AY11" s="74"/>
+      <c r="AZ11" s="74"/>
+      <c r="BA11" s="74"/>
+      <c r="BB11" s="74"/>
+      <c r="BC11" s="74"/>
+      <c r="BD11" s="75"/>
+      <c r="BE11" s="76"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="76"/>
+      <c r="BH11" s="77"/>
+      <c r="BI11" s="76"/>
+      <c r="BJ11" s="78"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
+      <c r="AQ12" s="67"/>
+      <c r="AR12" s="67"/>
       <c r="AS12" s="8"/>
       <c r="AT12" s="8"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8"/>
       <c r="AW12" s="8"/>
       <c r="AX12" s="8"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="67"/>
-      <c r="BA12" s="67"/>
-      <c r="BB12" s="67"/>
-      <c r="BC12" s="67"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="69"/>
-      <c r="BF12" s="70"/>
-      <c r="BG12" s="69"/>
-      <c r="BH12" s="70"/>
-      <c r="BI12" s="69"/>
-      <c r="BJ12" s="71"/>
+      <c r="AY12" s="68"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="68"/>
+      <c r="BB12" s="68"/>
+      <c r="BC12" s="68"/>
+      <c r="BD12" s="69"/>
+      <c r="BE12" s="70"/>
+      <c r="BF12" s="71"/>
+      <c r="BG12" s="70"/>
+      <c r="BH12" s="71"/>
+      <c r="BI12" s="70"/>
+      <c r="BJ12" s="72"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="52"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="53"/>
     </row>
     <row r="15" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ15" s="53"/>
-      <c r="AR15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="55"/>
     </row>
     <row r="16" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ16" s="55"/>
-      <c r="AR16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="57"/>
     </row>
     <row r="17" spans="43:44" ht="11.45" customHeight="1">
-      <c r="AQ17" s="57"/>
-      <c r="AR17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="174">

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>&amp;=I18N.KWR002_211(bean)</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>&amp;=reportDayHead.lower(horizontal,noadd,skip:1)</t>
+  </si>
+  <si>
+    <t>&amp;=I18N.KWR002_235(bean)</t>
   </si>
 </sst>
 </file>
@@ -681,7 +684,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -694,235 +697,232 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y2:Z4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="Y1" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1253,133 +1253,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="9" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="12"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="80"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="6"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="12"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="79"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="80"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1392,292 +1394,292 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="47"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="64"/>
-      <c r="AZ4" s="65"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="65"/>
-      <c r="BC4" s="64"/>
-      <c r="BD4" s="65"/>
-      <c r="BE4" s="64"/>
-      <c r="BF4" s="65"/>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="65"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="73"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="17"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="20"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="47"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="65"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="64"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="64"/>
-      <c r="BB5" s="65"/>
-      <c r="BC5" s="64"/>
-      <c r="BD5" s="65"/>
-      <c r="BE5" s="64"/>
-      <c r="BF5" s="65"/>
-      <c r="BG5" s="64"/>
-      <c r="BH5" s="65"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="73"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="17"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="20"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="81"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="15"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="81"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AQ7" s="66" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="15"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AQ7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66" t="s">
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="66"/>
-      <c r="BH7" s="66"/>
-      <c r="BI7" s="66"/>
-      <c r="BJ7" s="66"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44"/>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="44"/>
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="44"/>
+      <c r="BJ7" s="44"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
     </row>
     <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
       <c r="T9" s="27"/>
       <c r="U9" s="2"/>
       <c r="V9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="W9" s="29" t="s">
         <v>8</v>
       </c>
       <c r="X9" s="27" t="s">
@@ -1699,178 +1701,267 @@
       <c r="AL9" s="27"/>
       <c r="AM9" s="28"/>
       <c r="AN9" s="27"/>
-      <c r="AO9" s="29"/>
-      <c r="AQ9" s="66" t="s">
+      <c r="AO9" s="66"/>
+      <c r="AQ9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="66" t="s">
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="66"/>
-      <c r="AY9" s="66"/>
-      <c r="AZ9" s="66"/>
-      <c r="BA9" s="66" t="s">
+      <c r="AW9" s="44"/>
+      <c r="AX9" s="44"/>
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="66"/>
-      <c r="BC9" s="66"/>
-      <c r="BD9" s="66"/>
-      <c r="BE9" s="66"/>
-      <c r="BF9" s="66"/>
-      <c r="BG9" s="66" t="s">
+      <c r="BB9" s="44"/>
+      <c r="BC9" s="44"/>
+      <c r="BD9" s="44"/>
+      <c r="BE9" s="44"/>
+      <c r="BF9" s="44"/>
+      <c r="BG9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="66"/>
-      <c r="BI9" s="66"/>
-      <c r="BJ9" s="66"/>
+      <c r="BH9" s="44"/>
+      <c r="BI9" s="44"/>
+      <c r="BJ9" s="44"/>
     </row>
     <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="67"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="30" t="s">
+      <c r="V10" s="30"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="79" t="s">
+      <c r="AQ11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="79"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="74"/>
-      <c r="AZ11" s="74"/>
-      <c r="BA11" s="74"/>
-      <c r="BB11" s="74"/>
-      <c r="BC11" s="74"/>
-      <c r="BD11" s="75"/>
-      <c r="BE11" s="76"/>
-      <c r="BF11" s="77"/>
-      <c r="BG11" s="76"/>
-      <c r="BH11" s="77"/>
-      <c r="BI11" s="76"/>
-      <c r="BJ11" s="78"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="22"/>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="24"/>
+      <c r="BI11" s="23"/>
+      <c r="BJ11" s="25"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="70"/>
-      <c r="BF12" s="71"/>
-      <c r="BG12" s="70"/>
-      <c r="BH12" s="71"/>
-      <c r="BI12" s="70"/>
-      <c r="BJ12" s="72"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="47"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="48"/>
+      <c r="BJ12" s="50"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="53"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="33"/>
     </row>
     <row r="15" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="55"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="35"/>
     </row>
     <row r="16" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="57"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="37"/>
     </row>
     <row r="17" spans="43:44" ht="11.45" customHeight="1">
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="59"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="174">
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
+  <mergeCells count="175">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Q6:R6"/>
@@ -1895,133 +1986,46 @@
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
-&amp;=I18N.KWR002_210(bean)&amp;P</oddHeader>
+    <oddHeader xml:space="preserve">&amp;L&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
+&amp;=I18N.KWR002_210(bean)&amp;P
+</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="61" man="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -704,224 +704,224 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="Y1" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1253,30 +1253,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="51" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
@@ -1298,90 +1298,90 @@
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
       <c r="AO1" s="8"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="80"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="78"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="79"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="79"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="79"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="80"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="77"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="77"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="77"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="78"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1394,265 +1394,265 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="17"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="9"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="9"/>
-      <c r="BJ4" s="20"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="44"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="79"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="79"/>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="79"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="79"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="81"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="17"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="10"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="10"/>
-      <c r="BI5" s="9"/>
-      <c r="BJ5" s="20"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="44"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="79"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="81"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="15"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="75"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="15"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AQ7" s="44" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="75"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AQ7" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44" t="s">
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="44"/>
-      <c r="BJ7" s="44"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
     </row>
     <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -1674,246 +1674,253 @@
       <c r="Q9" s="29"/>
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
-      <c r="T9" s="27"/>
+      <c r="T9" s="24"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="W9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="27" t="s">
+      <c r="X9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="66"/>
-      <c r="AQ9" s="44" t="s">
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="26"/>
+      <c r="AQ9" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="44" t="s">
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="44"/>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44" t="s">
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="61"/>
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="44"/>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="44"/>
-      <c r="BF9" s="44"/>
-      <c r="BG9" s="44" t="s">
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="44"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="44"/>
+      <c r="BH9" s="61"/>
+      <c r="BI9" s="61"/>
+      <c r="BJ9" s="61"/>
     </row>
     <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="67"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="27"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="67" t="s">
+      <c r="V10" s="74"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="23"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="26" t="s">
+      <c r="AQ11" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="26"/>
+      <c r="AR11" s="73"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="22"/>
-      <c r="BE11" s="23"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="23"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="23"/>
-      <c r="BJ11" s="25"/>
+      <c r="AY11" s="68"/>
+      <c r="AZ11" s="68"/>
+      <c r="BA11" s="68"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="68"/>
+      <c r="BD11" s="69"/>
+      <c r="BE11" s="70"/>
+      <c r="BF11" s="71"/>
+      <c r="BG11" s="70"/>
+      <c r="BH11" s="71"/>
+      <c r="BI11" s="70"/>
+      <c r="BJ11" s="72"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="45"/>
+      <c r="AQ12" s="62"/>
+      <c r="AR12" s="62"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
-      <c r="BB12" s="46"/>
-      <c r="BC12" s="46"/>
-      <c r="BD12" s="47"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="49"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="48"/>
-      <c r="BJ12" s="50"/>
+      <c r="AY12" s="63"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BB12" s="63"/>
+      <c r="BC12" s="63"/>
+      <c r="BD12" s="64"/>
+      <c r="BE12" s="65"/>
+      <c r="BF12" s="66"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="66"/>
+      <c r="BI12" s="65"/>
+      <c r="BJ12" s="67"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="33"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="50"/>
     </row>
     <row r="15" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="35"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="52"/>
     </row>
     <row r="16" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="37"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="54"/>
     </row>
     <row r="17" spans="43:44" ht="11.45" customHeight="1">
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="39"/>
+      <c r="AQ17" s="55"/>
+      <c r="AR17" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:T1"/>
     <mergeCell ref="V8:Z8"/>
@@ -1938,85 +1945,78 @@
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -704,224 +704,224 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="Y1" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="AR4" sqref="AR4:AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1253,30 +1253,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="9" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
@@ -1298,90 +1298,90 @@
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
       <c r="AO1" s="8"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="78"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="80"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="76"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="76"/>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="77"/>
-      <c r="BG2" s="76"/>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="76"/>
-      <c r="BJ2" s="78"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="79"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="79"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="79"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="80"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1394,265 +1394,265 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="44"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="79"/>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="80"/>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="81"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="17"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="20"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="44"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="60"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="80"/>
-      <c r="BA5" s="79"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="79"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="79"/>
-      <c r="BF5" s="80"/>
-      <c r="BG5" s="79"/>
-      <c r="BH5" s="80"/>
-      <c r="BI5" s="79"/>
-      <c r="BJ5" s="81"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="17"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="20"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="75"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="15"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="75"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AQ7" s="61" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="15"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AQ7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61" t="s">
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44"/>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="44"/>
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="44"/>
+      <c r="BJ7" s="44"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
     </row>
     <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="63" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -1674,205 +1674,294 @@
       <c r="Q9" s="29"/>
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
-      <c r="T9" s="24"/>
+      <c r="T9" s="27"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="25" t="s">
+      <c r="V9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="W9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="26"/>
-      <c r="AQ9" s="61" t="s">
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="66"/>
+      <c r="AQ9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61" t="s">
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="61" t="s">
+      <c r="AW9" s="44"/>
+      <c r="AX9" s="44"/>
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="61"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="61" t="s">
+      <c r="BB9" s="44"/>
+      <c r="BC9" s="44"/>
+      <c r="BD9" s="44"/>
+      <c r="BE9" s="44"/>
+      <c r="BF9" s="44"/>
+      <c r="BG9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="61"/>
-      <c r="BJ9" s="61"/>
+      <c r="BH9" s="44"/>
+      <c r="BI9" s="44"/>
+      <c r="BJ9" s="44"/>
     </row>
     <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="27"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="67"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="27" t="s">
+      <c r="V10" s="30"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="23"/>
-      <c r="AO10" s="23"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="73" t="s">
+      <c r="AQ11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="73"/>
+      <c r="AR11" s="26"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6"/>
-      <c r="AY11" s="68"/>
-      <c r="AZ11" s="68"/>
-      <c r="BA11" s="68"/>
-      <c r="BB11" s="68"/>
-      <c r="BC11" s="68"/>
-      <c r="BD11" s="69"/>
-      <c r="BE11" s="70"/>
-      <c r="BF11" s="71"/>
-      <c r="BG11" s="70"/>
-      <c r="BH11" s="71"/>
-      <c r="BI11" s="70"/>
-      <c r="BJ11" s="72"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="22"/>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="24"/>
+      <c r="BI11" s="23"/>
+      <c r="BJ11" s="25"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="62"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
-      <c r="AY12" s="63"/>
-      <c r="AZ12" s="63"/>
-      <c r="BA12" s="63"/>
-      <c r="BB12" s="63"/>
-      <c r="BC12" s="63"/>
-      <c r="BD12" s="64"/>
-      <c r="BE12" s="65"/>
-      <c r="BF12" s="66"/>
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="66"/>
-      <c r="BI12" s="65"/>
-      <c r="BJ12" s="67"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="47"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="48"/>
+      <c r="BJ12" s="50"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="50"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="33"/>
     </row>
     <row r="15" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="52"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="35"/>
     </row>
     <row r="16" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ16" s="53"/>
-      <c r="AR16" s="54"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="37"/>
     </row>
     <row r="17" spans="43:44" ht="11.45" customHeight="1">
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="56"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Q6:R6"/>
@@ -1897,126 +1986,37 @@
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -2024,7 +2024,7 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
-&amp;=I18N.KWR002_210(bean)&amp;P
+page&amp;P
 </oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -169,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -526,6 +526,139 @@
     </border>
     <border>
       <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
         <color indexed="64"/>
       </left>
       <right/>
@@ -536,39 +669,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,7 +703,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,7 +718,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,10 +728,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,57 +741,11 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -684,7 +758,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -696,26 +770,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -728,13 +809,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,98 +824,86 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -848,16 +914,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -872,16 +947,7 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -920,8 +986,38 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="49" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1243,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="Y1" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4:AR5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1253,597 +1349,601 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="51" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="80"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="78"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="79"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="79"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="79"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="80"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="77"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="77"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="77"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="78"/>
     </row>
-    <row r="3" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="17"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="9"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="9"/>
-      <c r="BJ4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="55"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="22"/>
     </row>
-    <row r="5" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="17"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="10"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="10"/>
-      <c r="BI5" s="9"/>
-      <c r="BJ5" s="20"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="85"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="22"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="15"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="82"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="15"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AQ7" s="44" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="18"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AQ7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44" t="s">
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="44"/>
-      <c r="BJ7" s="44"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="45"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
     </row>
     <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="27"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="29"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="29" t="s">
+      <c r="W9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="27" t="s">
+      <c r="X9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="27"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="29"/>
       <c r="AO9" s="66"/>
-      <c r="AQ9" s="44" t="s">
+      <c r="AQ9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="44" t="s">
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="44"/>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44" t="s">
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="44"/>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="44"/>
-      <c r="BF9" s="44"/>
-      <c r="BG9" s="44" t="s">
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="45"/>
+      <c r="BF9" s="45"/>
+      <c r="BG9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="44"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="44"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="45"/>
+      <c r="BJ9" s="45"/>
     </row>
     <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="67"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="88"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="67" t="s">
+      <c r="V10" s="32"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="26" t="s">
+      <c r="AQ11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="22"/>
-      <c r="BE11" s="23"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="23"/>
-      <c r="BH11" s="24"/>
-      <c r="BI11" s="23"/>
-      <c r="BJ11" s="25"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23"/>
+      <c r="BC11" s="23"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="26"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="26"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="27"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
-      <c r="BB12" s="46"/>
-      <c r="BC12" s="46"/>
-      <c r="BD12" s="47"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="49"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="48"/>
-      <c r="BJ12" s="50"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" s="47"/>
+      <c r="BA12" s="47"/>
+      <c r="BB12" s="47"/>
+      <c r="BC12" s="47"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="49"/>
+      <c r="BF12" s="50"/>
+      <c r="BG12" s="49"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="51"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="33"/>
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="34"/>
     </row>
     <row r="15" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="35"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="36"/>
     </row>
     <row r="16" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="38"/>
     </row>
     <row r="17" spans="43:44" ht="11.45" customHeight="1">
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="O2:T2"/>
     <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="BE2:BF2"/>
@@ -1853,9 +1953,6 @@
     <mergeCell ref="AW2:AX2"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="F3:J3"/>
     <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BA1:BB1"/>
@@ -1880,14 +1977,6 @@
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="X10:Y10"/>
@@ -1914,15 +2003,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
@@ -1932,13 +2012,7 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AQ14:AR14"/>
     <mergeCell ref="AQ15:AR17"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AR4:AR5"/>
@@ -1962,13 +2036,30 @@
     <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="AW5:AX5"/>
     <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
     <mergeCell ref="BI5:BJ5"/>
     <mergeCell ref="AY11:AZ11"/>
     <mergeCell ref="BA11:BB11"/>
@@ -1978,14 +2069,10 @@
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="BI11:BJ11"/>
     <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="C7:D7"/>
@@ -1995,11 +2082,17 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="BE4:BF4"/>
     <mergeCell ref="BG4:BH4"/>
     <mergeCell ref="AD5:AE7"/>
@@ -2013,10 +2106,19 @@
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -758,7 +758,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -788,17 +788,38 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -806,15 +827,27 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -833,9 +866,6 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -848,10 +878,28 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,35 +953,8 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -947,7 +968,13 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="49" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -986,38 +1013,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="49" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1340,7 +1337,7 @@
   <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="M10" sqref="M10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1394,26 +1391,26 @@
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="7"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="78"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="86"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="86"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="87"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -1439,51 +1436,51 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="76"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="76"/>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="77"/>
-      <c r="BG2" s="76"/>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="76"/>
-      <c r="BJ2" s="78"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="86"/>
+      <c r="BC2" s="85"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="85"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="85"/>
+      <c r="BJ2" s="87"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1496,454 +1493,456 @@
       <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="55"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="14"/>
-      <c r="BF4" s="15"/>
-      <c r="BG4" s="14"/>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="14"/>
-      <c r="BJ4" s="22"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="49"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="33"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="83" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="85"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="15"/>
-      <c r="BG5" s="14"/>
-      <c r="BH5" s="15"/>
-      <c r="BI5" s="14"/>
-      <c r="BJ5" s="22"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="29"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="33"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="82"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="28"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="18"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AQ7" s="45" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="25"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AQ7" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="45"/>
-      <c r="AX7" s="45" t="s">
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
-      <c r="BD7" s="45"/>
-      <c r="BE7" s="45"/>
-      <c r="BF7" s="45"/>
-      <c r="BG7" s="45"/>
-      <c r="BH7" s="45"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="79"/>
+      <c r="AO8" s="79"/>
     </row>
     <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="29"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="39"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="30" t="s">
+      <c r="V9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="29" t="s">
+      <c r="X9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="66"/>
-      <c r="AQ9" s="45" t="s">
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="50"/>
+      <c r="AQ9" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45" t="s">
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45" t="s">
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="61"/>
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45"/>
-      <c r="BG9" s="45" t="s">
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45"/>
+      <c r="BH9" s="61"/>
+      <c r="BI9" s="61"/>
+      <c r="BJ9" s="61"/>
     </row>
     <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="86" t="s">
+      <c r="A10" s="70"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="88"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="74"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="88" t="s">
+      <c r="V10" s="42"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="28" t="s">
+      <c r="AQ11" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="28"/>
+      <c r="AR11" s="68"/>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
       <c r="AU11" s="5"/>
       <c r="AV11" s="5"/>
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
-      <c r="AY11" s="23"/>
-      <c r="AZ11" s="23"/>
-      <c r="BA11" s="23"/>
-      <c r="BB11" s="23"/>
-      <c r="BC11" s="23"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="25"/>
-      <c r="BF11" s="26"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="25"/>
-      <c r="BJ11" s="27"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="35"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="37"/>
+      <c r="BI11" s="36"/>
+      <c r="BJ11" s="38"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="46"/>
+      <c r="AQ12" s="62"/>
+      <c r="AR12" s="62"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
       <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6"/>
-      <c r="AY12" s="47"/>
-      <c r="AZ12" s="47"/>
-      <c r="BA12" s="47"/>
-      <c r="BB12" s="47"/>
-      <c r="BC12" s="47"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="49"/>
-      <c r="BF12" s="50"/>
-      <c r="BG12" s="49"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="49"/>
-      <c r="BJ12" s="51"/>
+      <c r="AY12" s="63"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BB12" s="63"/>
+      <c r="BC12" s="63"/>
+      <c r="BD12" s="64"/>
+      <c r="BE12" s="65"/>
+      <c r="BF12" s="66"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="66"/>
+      <c r="BI12" s="65"/>
+      <c r="BJ12" s="67"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="34"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="45"/>
     </row>
     <row r="15" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="36"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="52"/>
     </row>
     <row r="16" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="38"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="54"/>
     </row>
     <row r="17" spans="43:44" ht="11.45" customHeight="1">
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="40"/>
+      <c r="AQ17" s="55"/>
+      <c r="AR17" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="175">
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="BE2:BF2"/>
@@ -1951,8 +1950,14 @@
     <mergeCell ref="BA2:BB2"/>
     <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD5:AE7"/>
     <mergeCell ref="BE1:BF1"/>
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BA1:BB1"/>
@@ -1960,8 +1965,13 @@
     <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="AA8:AE8"/>
     <mergeCell ref="AF8:AK8"/>
     <mergeCell ref="AL8:AO8"/>
@@ -1970,23 +1980,6 @@
     <mergeCell ref="AJ5:AK7"/>
     <mergeCell ref="AL5:AM7"/>
     <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:D9"/>
@@ -2013,6 +2006,9 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="AQ15:AR17"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AR4:AR5"/>
@@ -2036,8 +2032,6 @@
     <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="AW5:AX5"/>
     <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
@@ -2048,10 +2042,6 @@
     <mergeCell ref="V8:Z8"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
     <mergeCell ref="AL10:AM10"/>
     <mergeCell ref="AN10:AO10"/>
     <mergeCell ref="AH9:AI9"/>
@@ -2060,6 +2050,12 @@
     <mergeCell ref="AN9:AO9"/>
     <mergeCell ref="AF9:AG9"/>
     <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="W9:W10"/>
     <mergeCell ref="BI5:BJ5"/>
     <mergeCell ref="AY11:AZ11"/>
     <mergeCell ref="BA11:BB11"/>
@@ -2069,13 +2065,19 @@
     <mergeCell ref="BG11:BH11"/>
     <mergeCell ref="BI11:BJ11"/>
     <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -2090,22 +2092,6 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="A2:J2"/>
@@ -2119,6 +2105,17 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:J3"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\KWR002 Sua excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\nts_uk\eclipse202003\wpUK01\wildfly-10.1.0.Final\standalone\deployments\nts.uk.at.web.war\WEB-INF\lib\nts.uk.file.at.infra.jar\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -779,6 +779,210 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="49" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -788,21 +992,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -821,200 +1010,11 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="49" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:N10"/>
+      <selection activeCell="AD4" sqref="AD4:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1346,30 +1346,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
@@ -1391,96 +1391,96 @@
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="7"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="85"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="85"/>
-      <c r="BB1" s="86"/>
-      <c r="BC1" s="85"/>
-      <c r="BD1" s="86"/>
-      <c r="BE1" s="85"/>
-      <c r="BF1" s="86"/>
-      <c r="BG1" s="85"/>
-      <c r="BH1" s="86"/>
-      <c r="BI1" s="85"/>
-      <c r="BJ1" s="87"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="11"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="86"/>
-      <c r="BC2" s="85"/>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="85"/>
-      <c r="BH2" s="86"/>
-      <c r="BI2" s="85"/>
-      <c r="BJ2" s="87"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="11"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1493,36 +1493,36 @@
       <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="49"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="88"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="17"/>
       <c r="AF4" s="17"/>
@@ -1535,56 +1535,56 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
       <c r="AO4" s="17"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="13"/>
-      <c r="BH4" s="14"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="33"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="53"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="69"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="29"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="77"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="17"/>
@@ -1597,54 +1597,54 @@
       <c r="AM5" s="17"/>
       <c r="AN5" s="17"/>
       <c r="AO5" s="17"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="60"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="13"/>
-      <c r="BH5" s="14"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="33"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="52"/>
+      <c r="BJ5" s="69"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="28"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="76"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
       <c r="AF6" s="17"/>
@@ -1659,34 +1659,34 @@
       <c r="AO6" s="17"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="75"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
       <c r="AF7" s="17"/>
@@ -1699,315 +1699,331 @@
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
       <c r="AO7" s="17"/>
-      <c r="AQ7" s="61" t="s">
+      <c r="AQ7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61" t="s">
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="54"/>
+      <c r="AX7" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
+      <c r="AY7" s="54"/>
+      <c r="AZ7" s="54"/>
+      <c r="BA7" s="54"/>
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="54"/>
+      <c r="BD7" s="54"/>
+      <c r="BE7" s="54"/>
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="54"/>
+      <c r="BH7" s="54"/>
+      <c r="BI7" s="54"/>
+      <c r="BJ7" s="54"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
     </row>
     <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="39"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="19"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="40" t="s">
+      <c r="V9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="41" t="s">
+      <c r="W9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="39" t="s">
+      <c r="X9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="50"/>
-      <c r="AQ9" s="61" t="s">
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="64"/>
+      <c r="AQ9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61" t="s">
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="61" t="s">
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
+      <c r="AY9" s="54"/>
+      <c r="AZ9" s="54"/>
+      <c r="BA9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="61"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="61" t="s">
+      <c r="BB9" s="54"/>
+      <c r="BC9" s="54"/>
+      <c r="BD9" s="54"/>
+      <c r="BE9" s="54"/>
+      <c r="BF9" s="54"/>
+      <c r="BG9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="61"/>
-      <c r="BJ9" s="61"/>
+      <c r="BH9" s="54"/>
+      <c r="BI9" s="54"/>
+      <c r="BJ9" s="54"/>
     </row>
     <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="74"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="66"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="74" t="s">
+      <c r="V10" s="61"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="43"/>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="43"/>
-      <c r="AN10" s="43"/>
-      <c r="AO10" s="43"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="68" t="s">
+      <c r="AQ11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="68"/>
+      <c r="AR11" s="65"/>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
       <c r="AU11" s="5"/>
       <c r="AV11" s="5"/>
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="34"/>
-      <c r="BD11" s="35"/>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="37"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="37"/>
-      <c r="BI11" s="36"/>
-      <c r="BJ11" s="38"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="71"/>
+      <c r="BE11" s="72"/>
+      <c r="BF11" s="73"/>
+      <c r="BG11" s="72"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="72"/>
+      <c r="BJ11" s="74"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="62"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
       <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6"/>
-      <c r="AY12" s="63"/>
-      <c r="AZ12" s="63"/>
-      <c r="BA12" s="63"/>
-      <c r="BB12" s="63"/>
-      <c r="BC12" s="63"/>
-      <c r="BD12" s="64"/>
-      <c r="BE12" s="65"/>
-      <c r="BF12" s="66"/>
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="66"/>
-      <c r="BI12" s="65"/>
-      <c r="BJ12" s="67"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
+      <c r="BB12" s="56"/>
+      <c r="BC12" s="56"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="58"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="58"/>
+      <c r="BJ12" s="60"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="45"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="63"/>
     </row>
     <row r="15" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="52"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="43"/>
     </row>
     <row r="16" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ16" s="53"/>
-      <c r="AR16" s="54"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="45"/>
     </row>
     <row r="17" spans="43:44" ht="11.45" customHeight="1">
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="56"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U2:Z2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="AQ15:AR17"/>
     <mergeCell ref="AQ4:AQ5"/>
@@ -2032,90 +2048,74 @@
     <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="AW5:AX5"/>
     <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
     <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\nts_uk\eclipse202003\wpUK01\wildfly-10.1.0.Final\standalone\deployments\nts.uk.at.web.war\WEB-INF\lib\nts.uk.file.at.infra.jar\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Sua Export KWR002\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -169,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -525,80 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -744,6 +670,43 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -758,7 +721,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -776,245 +739,239 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="49" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1336,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4:AE4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="Y1" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="BI12" sqref="BI12:BJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1346,30 +1303,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
@@ -1391,96 +1348,96 @@
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="7"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="11"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="81"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="82"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="11"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="80"/>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="80"/>
+      <c r="AZ2" s="81"/>
+      <c r="BA2" s="80"/>
+      <c r="BB2" s="81"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="81"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="81"/>
+      <c r="BG2" s="80"/>
+      <c r="BH2" s="81"/>
+      <c r="BI2" s="80"/>
+      <c r="BJ2" s="82"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1493,36 +1450,36 @@
       <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="88"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="31"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="17"/>
       <c r="AF4" s="17"/>
@@ -1535,56 +1492,56 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
       <c r="AO4" s="17"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="53"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="69"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="34"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="77"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="33"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="17"/>
@@ -1597,54 +1554,54 @@
       <c r="AM5" s="17"/>
       <c r="AN5" s="17"/>
       <c r="AO5" s="17"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="52"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="52"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="52"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="52"/>
-      <c r="BJ5" s="69"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="34"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="76"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="32"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
       <c r="AF6" s="17"/>
@@ -1659,34 +1616,34 @@
       <c r="AO6" s="17"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="75"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="52"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
       <c r="AF7" s="17"/>
@@ -1699,248 +1656,399 @@
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
       <c r="AO7" s="17"/>
-      <c r="AQ7" s="54" t="s">
+      <c r="AQ7" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54" t="s">
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="63"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="63"/>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="63"/>
+      <c r="BD7" s="63"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="63"/>
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="63"/>
+      <c r="BI7" s="63"/>
+      <c r="BJ7" s="63"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
     </row>
     <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="19"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="20" t="s">
+      <c r="V9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="W9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="X9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="64"/>
-      <c r="AQ9" s="54" t="s">
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="47"/>
+      <c r="AQ9" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54" t="s">
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="63"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54" t="s">
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="63"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="54" t="s">
+      <c r="BB9" s="63"/>
+      <c r="BC9" s="63"/>
+      <c r="BD9" s="63"/>
+      <c r="BE9" s="63"/>
+      <c r="BF9" s="63"/>
+      <c r="BG9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="63"/>
+      <c r="BJ9" s="63"/>
     </row>
     <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="33" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="66"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="49"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="66" t="s">
+      <c r="V10" s="40"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="65" t="s">
+      <c r="AQ11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="65"/>
+      <c r="AR11" s="48"/>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
       <c r="AU11" s="5"/>
       <c r="AV11" s="5"/>
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="70"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="72"/>
-      <c r="BF11" s="73"/>
-      <c r="BG11" s="72"/>
-      <c r="BH11" s="73"/>
-      <c r="BI11" s="72"/>
-      <c r="BJ11" s="74"/>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="35"/>
+      <c r="BA11" s="35"/>
+      <c r="BB11" s="35"/>
+      <c r="BC11" s="35"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="84"/>
+      <c r="BF11" s="85"/>
+      <c r="BG11" s="84"/>
+      <c r="BH11" s="85"/>
+      <c r="BI11" s="84"/>
+      <c r="BJ11" s="86"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
       <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
-      <c r="BB12" s="56"/>
-      <c r="BC12" s="56"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="58"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="58"/>
-      <c r="BJ12" s="60"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
+      <c r="BD12" s="66"/>
+      <c r="BE12" s="83"/>
+      <c r="BF12" s="66"/>
+      <c r="BG12" s="83"/>
+      <c r="BH12" s="66"/>
+      <c r="BI12" s="83"/>
+      <c r="BJ12" s="65"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="63"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="43"/>
     </row>
     <row r="15" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="43"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="54"/>
     </row>
     <row r="16" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="45"/>
+      <c r="AQ16" s="55"/>
+      <c r="AR16" s="56"/>
     </row>
     <row r="17" spans="43:44" ht="11.45" customHeight="1">
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="47"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="175">
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="U2:Z2"/>
     <mergeCell ref="A1:J1"/>
@@ -1965,157 +2073,6 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Sua Export KWR002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\nts_uk\eclipse202003\wpUK01\wildfly-10.1.0.Final\standalone\deployments\nts.uk.at.web.war\WEB-INF\lib\nts.uk.file.at.infra.jar\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -721,7 +721,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -741,15 +741,137 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
@@ -757,13 +879,70 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -787,191 +966,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1293,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="Y1" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="BI12" sqref="BI12:BJ12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1303,30 +1299,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
@@ -1348,26 +1344,26 @@
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="7"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="82"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="12"/>
     </row>
     <row r="2" spans="1:62" ht="9.75" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1382,10 +1378,10 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -1402,42 +1398,42 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="81"/>
-      <c r="BA2" s="80"/>
-      <c r="BB2" s="81"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="81"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="81"/>
-      <c r="BG2" s="80"/>
-      <c r="BH2" s="81"/>
-      <c r="BI2" s="80"/>
-      <c r="BJ2" s="82"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="12"/>
     </row>
     <row r="3" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1450,544 +1446,506 @@
       <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:62" ht="9.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="31"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="13"/>
-      <c r="BH4" s="14"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="34"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="84"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="53"/>
+      <c r="BJ4" s="60"/>
     </row>
     <row r="5" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="33"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AQ5" s="60"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="13"/>
-      <c r="BH5" s="14"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="34"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="76"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="54"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="54"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="54"/>
+      <c r="BI5" s="53"/>
+      <c r="BJ5" s="60"/>
     </row>
     <row r="6" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="32"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="75"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
     </row>
     <row r="7" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="52"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AQ7" s="63" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="69"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AQ7" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="63"/>
-      <c r="AU7" s="63"/>
-      <c r="AV7" s="63"/>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="63" t="s">
+      <c r="AR7" s="55"/>
+      <c r="AS7" s="55"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55"/>
+      <c r="AV7" s="55"/>
+      <c r="AW7" s="55"/>
+      <c r="AX7" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="63"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="63"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
+      <c r="AY7" s="55"/>
+      <c r="AZ7" s="55"/>
+      <c r="BA7" s="55"/>
+      <c r="BB7" s="55"/>
+      <c r="BC7" s="55"/>
+      <c r="BD7" s="55"/>
+      <c r="BE7" s="55"/>
+      <c r="BF7" s="55"/>
+      <c r="BG7" s="55"/>
+      <c r="BH7" s="55"/>
+      <c r="BI7" s="55"/>
+      <c r="BJ7" s="55"/>
     </row>
     <row r="8" spans="1:62" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
     </row>
     <row r="9" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="20"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="39" t="s">
+      <c r="V9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="37" t="s">
+      <c r="W9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="47"/>
-      <c r="AQ9" s="63" t="s">
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="64"/>
+      <c r="AQ9" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AR9" s="63"/>
-      <c r="AS9" s="63"/>
-      <c r="AT9" s="63"/>
-      <c r="AU9" s="63"/>
-      <c r="AV9" s="63" t="s">
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55"/>
+      <c r="AU9" s="55"/>
+      <c r="AV9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="63"/>
-      <c r="AX9" s="63"/>
-      <c r="AY9" s="63"/>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="63" t="s">
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="55"/>
+      <c r="AY9" s="55"/>
+      <c r="AZ9" s="55"/>
+      <c r="BA9" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="63"/>
-      <c r="BC9" s="63"/>
-      <c r="BD9" s="63"/>
-      <c r="BE9" s="63"/>
-      <c r="BF9" s="63"/>
-      <c r="BG9" s="63" t="s">
+      <c r="BB9" s="55"/>
+      <c r="BC9" s="55"/>
+      <c r="BD9" s="55"/>
+      <c r="BE9" s="55"/>
+      <c r="BF9" s="55"/>
+      <c r="BG9" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="BH9" s="63"/>
-      <c r="BI9" s="63"/>
-      <c r="BJ9" s="63"/>
+      <c r="BH9" s="55"/>
+      <c r="BI9" s="55"/>
+      <c r="BJ9" s="55"/>
     </row>
     <row r="10" spans="1:62" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="49"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="66"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="49" t="s">
+      <c r="V10" s="61"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
     </row>
     <row r="11" spans="1:62" ht="9.75" customHeight="1" thickTop="1">
-      <c r="AQ11" s="48" t="s">
+      <c r="AQ11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AR11" s="48"/>
+      <c r="AR11" s="65"/>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
       <c r="AU11" s="5"/>
       <c r="AV11" s="5"/>
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="35"/>
-      <c r="BC11" s="35"/>
-      <c r="BD11" s="36"/>
-      <c r="BE11" s="84"/>
-      <c r="BF11" s="85"/>
-      <c r="BG11" s="84"/>
-      <c r="BH11" s="85"/>
-      <c r="BI11" s="84"/>
-      <c r="BJ11" s="86"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="71"/>
+      <c r="BE11" s="72"/>
+      <c r="BF11" s="73"/>
+      <c r="BG11" s="72"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="72"/>
+      <c r="BJ11" s="74"/>
     </row>
     <row r="12" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ12" s="64"/>
-      <c r="AR12" s="64"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="56"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
       <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="65"/>
-      <c r="BB12" s="65"/>
-      <c r="BC12" s="65"/>
-      <c r="BD12" s="66"/>
-      <c r="BE12" s="83"/>
-      <c r="BF12" s="66"/>
-      <c r="BG12" s="83"/>
-      <c r="BH12" s="66"/>
-      <c r="BI12" s="83"/>
-      <c r="BJ12" s="65"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="57"/>
+      <c r="BB12" s="57"/>
+      <c r="BC12" s="57"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="58"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="58"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="57"/>
     </row>
     <row r="14" spans="1:62" ht="9.75" customHeight="1">
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="43"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="63"/>
     </row>
     <row r="15" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ15" s="53"/>
-      <c r="AR15" s="54"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="44"/>
     </row>
     <row r="16" spans="1:62" ht="11.45" customHeight="1">
-      <c r="AQ16" s="55"/>
-      <c r="AR16" s="56"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="46"/>
     </row>
     <row r="17" spans="43:44" ht="11.45" customHeight="1">
-      <c r="AQ17" s="57"/>
-      <c r="AR17" s="58"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BA4:BB4"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="V9:V10"/>
@@ -2012,67 +1970,105 @@
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
     <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U2:Z2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
     <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="U2:Z2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:Z1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:T2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69828204-D8D9-45A0-A122-B75BA67574BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63279C30-7F4D-4D56-ABCF-D3D251A6ECE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>&amp;=I18N.KWR002_212(bean)</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>&amp;=reportDayHead.lower(horizontal,noadd,skip:1)</t>
-  </si>
-  <si>
-    <t>&amp;=I18N.KWR002_235(bean)</t>
   </si>
   <si>
     <t>&amp;=I18N.KWR002_222(bean)</t>
@@ -624,7 +621,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -643,6 +640,222 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -655,251 +868,29 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1222,7 +1213,7 @@
   <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="9.75" customHeight="1"/>
@@ -1232,38 +1223,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="11.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
@@ -1277,565 +1268,565 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="21"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="15"/>
     </row>
     <row r="2" spans="1:62" ht="11.25" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90" t="s">
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="25"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="25"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="24"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="18"/>
     </row>
     <row r="3" spans="1:62" ht="11.25" customHeight="1">
-      <c r="A3" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
     </row>
     <row r="4" spans="1:62" ht="9.6" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="63"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="70"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="91"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="64"/>
     </row>
     <row r="5" spans="1:62" ht="9.6" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="82"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="54"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="54"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="55"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="84"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="73"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="49"/>
     </row>
     <row r="6" spans="1:62" ht="9.6" customHeight="1" thickBot="1">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="81"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="79"/>
-      <c r="AH6" s="79"/>
-      <c r="AI6" s="79"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="79"/>
-      <c r="AL6" s="79"/>
-      <c r="AM6" s="79"/>
-      <c r="AN6" s="79"/>
-      <c r="AO6" s="79"/>
+      <c r="A6" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="77"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="73"/>
     </row>
     <row r="7" spans="1:62" ht="9.6" customHeight="1" thickBot="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="67"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AQ7" s="48" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="61"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="73"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="73"/>
+      <c r="AQ7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48" t="s">
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
-      <c r="BJ7" s="48"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="42"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
     </row>
     <row r="8" spans="1:62" ht="6.6" customHeight="1" thickBot="1">
       <c r="U8" s="3"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
     </row>
     <row r="9" spans="1:62" ht="10.199999999999999" customHeight="1" thickBot="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="74"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="68"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="26" t="s">
+      <c r="V9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="26" t="s">
+      <c r="W9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="63"/>
-      <c r="AO9" s="63"/>
-      <c r="AQ9" s="48" t="s">
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AQ9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48" t="s">
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48" t="s">
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="48"/>
-      <c r="BE9" s="48"/>
-      <c r="BF9" s="48"/>
-      <c r="BG9" s="48" t="s">
+      <c r="BB9" s="42"/>
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="42"/>
+      <c r="BG9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="BH9" s="48"/>
-      <c r="BI9" s="48"/>
-      <c r="BJ9" s="48"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
+      <c r="BJ9" s="42"/>
     </row>
     <row r="10" spans="1:62" ht="10.199999999999999" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="75"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="69"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="65" t="s">
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="62"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="56"/>
     </row>
     <row r="11" spans="1:62" ht="9" customHeight="1">
-      <c r="AQ11" s="64" t="s">
+      <c r="AQ11" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AR11" s="64"/>
+      <c r="AR11" s="58"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6"/>
-      <c r="AY11" s="72"/>
-      <c r="AZ11" s="72"/>
-      <c r="BA11" s="72"/>
-      <c r="BB11" s="72"/>
-      <c r="BC11" s="72"/>
-      <c r="BD11" s="73"/>
-      <c r="BE11" s="68"/>
-      <c r="BF11" s="69"/>
-      <c r="BG11" s="68"/>
-      <c r="BH11" s="69"/>
-      <c r="BI11" s="68"/>
-      <c r="BJ11" s="71"/>
+      <c r="AY11" s="66"/>
+      <c r="AZ11" s="66"/>
+      <c r="BA11" s="66"/>
+      <c r="BB11" s="66"/>
+      <c r="BC11" s="66"/>
+      <c r="BD11" s="67"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="63"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="62"/>
+      <c r="BJ11" s="65"/>
     </row>
     <row r="12" spans="1:62" ht="9" customHeight="1">
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="49"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="50"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="44"/>
+      <c r="BD12" s="45"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="45"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="45"/>
+      <c r="BI12" s="46"/>
+      <c r="BJ12" s="44"/>
     </row>
     <row r="13" spans="1:62" ht="9" customHeight="1"/>
     <row r="14" spans="1:62" ht="9" customHeight="1">
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="57"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="51"/>
     </row>
     <row r="15" spans="1:62" ht="9" customHeight="1">
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="37"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="31"/>
     </row>
     <row r="16" spans="1:62" ht="9" customHeight="1">
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="39"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="33"/>
     </row>
     <row r="17" spans="43:44" ht="9" customHeight="1">
-      <c r="AQ17" s="40"/>
-      <c r="AR17" s="41"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="178">
+  <mergeCells count="177">
     <mergeCell ref="AU5:AV5"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AD5:AE7"/>
@@ -1850,39 +1841,40 @@
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K1:Z1"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
     <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="S4:T4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:AB3"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="K1:AB1"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="V9:V10"/>
@@ -1902,6 +1894,10 @@
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BI4:BJ4"/>
     <mergeCell ref="BG11:BH11"/>
@@ -1994,17 +1990,6 @@
     <mergeCell ref="BA1:BB1"/>
     <mergeCell ref="AY1:AZ1"/>
     <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="G4:H4"/>
@@ -2014,6 +1999,11 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UK_test\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63279C30-7F4D-4D56-ABCF-D3D251A6ECE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF081EA-A5E2-418B-9645-C7C28E2276A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$AO$17</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -640,6 +637,57 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -652,29 +700,32 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -682,6 +733,144 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -691,206 +880,14 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1216,45 +1213,45 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="9.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="41" width="3.109375" style="2" customWidth="1"/>
-    <col min="42" max="16384" width="3.109375" style="2"/>
+    <col min="1" max="41" width="3.140625" style="2" customWidth="1"/>
+    <col min="42" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="11.25" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
@@ -1268,650 +1265,619 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="15"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="90"/>
     </row>
     <row r="2" spans="1:62" ht="11.25" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="17"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="18"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="91"/>
     </row>
     <row r="3" spans="1:62" ht="11.25" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="1:62" ht="9.6" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="91"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="64"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="33"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="53"/>
     </row>
     <row r="5" spans="1:62" ht="9.6" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="75" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="84"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="73"/>
-      <c r="AL5" s="73"/>
-      <c r="AM5" s="73"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="73"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="49"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="34"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="85"/>
     </row>
     <row r="6" spans="1:62" ht="9.6" customHeight="1" thickBot="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="77"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="73"/>
-      <c r="AH6" s="73"/>
-      <c r="AI6" s="73"/>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="73"/>
-      <c r="AL6" s="73"/>
-      <c r="AM6" s="73"/>
-      <c r="AN6" s="73"/>
-      <c r="AO6" s="73"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="49"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
     </row>
     <row r="7" spans="1:62" ht="9.6" customHeight="1" thickBot="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="61"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="73"/>
-      <c r="AQ7" s="42" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="68"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AQ7" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42" t="s">
+      <c r="AR7" s="80"/>
+      <c r="AS7" s="80"/>
+      <c r="AT7" s="80"/>
+      <c r="AU7" s="80"/>
+      <c r="AV7" s="80"/>
+      <c r="AW7" s="80"/>
+      <c r="AX7" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="42"/>
+      <c r="AY7" s="80"/>
+      <c r="AZ7" s="80"/>
+      <c r="BA7" s="80"/>
+      <c r="BB7" s="80"/>
+      <c r="BC7" s="80"/>
+      <c r="BD7" s="80"/>
+      <c r="BE7" s="80"/>
+      <c r="BF7" s="80"/>
+      <c r="BG7" s="80"/>
+      <c r="BH7" s="80"/>
+      <c r="BI7" s="80"/>
+      <c r="BJ7" s="80"/>
     </row>
     <row r="8" spans="1:62" ht="6.6" customHeight="1" thickBot="1">
       <c r="U8" s="3"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
     </row>
-    <row r="9" spans="1:62" ht="10.199999999999999" customHeight="1" thickBot="1">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:62" ht="10.15" customHeight="1" thickBot="1">
+      <c r="A9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="68"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="37"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="20" t="s">
+      <c r="V9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="W9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="X9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AQ9" s="42" t="s">
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AQ9" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42" t="s">
+      <c r="AR9" s="80"/>
+      <c r="AS9" s="80"/>
+      <c r="AT9" s="80"/>
+      <c r="AU9" s="80"/>
+      <c r="AV9" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="42" t="s">
+      <c r="AW9" s="80"/>
+      <c r="AX9" s="80"/>
+      <c r="AY9" s="80"/>
+      <c r="AZ9" s="80"/>
+      <c r="BA9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="BB9" s="42"/>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42"/>
-      <c r="BG9" s="42" t="s">
+      <c r="BB9" s="80"/>
+      <c r="BC9" s="80"/>
+      <c r="BD9" s="80"/>
+      <c r="BE9" s="80"/>
+      <c r="BF9" s="80"/>
+      <c r="BG9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42"/>
+      <c r="BH9" s="80"/>
+      <c r="BI9" s="80"/>
+      <c r="BJ9" s="80"/>
     </row>
-    <row r="10" spans="1:62" ht="10.199999999999999" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="29" t="s">
+    <row r="10" spans="1:62" ht="10.15" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="69"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="42"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="59" t="s">
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="56"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="64"/>
     </row>
     <row r="11" spans="1:62" ht="9" customHeight="1">
-      <c r="AQ11" s="58" t="s">
+      <c r="AQ11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AR11" s="58"/>
+      <c r="AR11" s="65"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6"/>
-      <c r="AY11" s="66"/>
-      <c r="AZ11" s="66"/>
-      <c r="BA11" s="66"/>
-      <c r="BB11" s="66"/>
-      <c r="BC11" s="66"/>
-      <c r="BD11" s="67"/>
-      <c r="BE11" s="62"/>
-      <c r="BF11" s="63"/>
-      <c r="BG11" s="62"/>
-      <c r="BH11" s="63"/>
-      <c r="BI11" s="62"/>
-      <c r="BJ11" s="65"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="56"/>
+      <c r="BA11" s="56"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="57"/>
+      <c r="BE11" s="50"/>
+      <c r="BF11" s="51"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="51"/>
+      <c r="BI11" s="50"/>
+      <c r="BJ11" s="54"/>
     </row>
     <row r="12" spans="1:62" ht="9" customHeight="1">
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="43"/>
+      <c r="AQ12" s="81"/>
+      <c r="AR12" s="81"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="45"/>
-      <c r="BE12" s="46"/>
-      <c r="BF12" s="45"/>
-      <c r="BG12" s="46"/>
-      <c r="BH12" s="45"/>
-      <c r="BI12" s="46"/>
-      <c r="BJ12" s="44"/>
+      <c r="AY12" s="82"/>
+      <c r="AZ12" s="82"/>
+      <c r="BA12" s="82"/>
+      <c r="BB12" s="82"/>
+      <c r="BC12" s="82"/>
+      <c r="BD12" s="83"/>
+      <c r="BE12" s="84"/>
+      <c r="BF12" s="83"/>
+      <c r="BG12" s="84"/>
+      <c r="BH12" s="83"/>
+      <c r="BI12" s="84"/>
+      <c r="BJ12" s="82"/>
     </row>
     <row r="13" spans="1:62" ht="9" customHeight="1"/>
     <row r="14" spans="1:62" ht="9" customHeight="1">
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="51"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="59"/>
     </row>
     <row r="15" spans="1:62" ht="9" customHeight="1">
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="31"/>
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="71"/>
     </row>
     <row r="16" spans="1:62" ht="9" customHeight="1">
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="33"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="73"/>
     </row>
     <row r="17" spans="43:44" ht="9" customHeight="1">
-      <c r="AQ17" s="34"/>
-      <c r="AR17" s="35"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AD5:AE7"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:AB3"/>
-    <mergeCell ref="T2:AB2"/>
-    <mergeCell ref="K1:AB1"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AF5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
-    <mergeCell ref="AJ5:AK7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="AN5:AO7"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BI11:BJ11"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="AQ15:AR17"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BJ7"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BG9:BJ9"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AY12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BI12:BJ12"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BI5:BJ5"/>
     <mergeCell ref="AQ14:AR14"/>
     <mergeCell ref="V8:Z8"/>
     <mergeCell ref="U7:V7"/>
@@ -1936,74 +1902,105 @@
     <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="AA8:AE8"/>
     <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AQ15:AR17"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BJ7"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BG9:BJ9"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AY12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BI12:BJ12"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BI11:BJ11"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AF5:AG7"/>
+    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AJ5:AK7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="AN5:AO7"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:AB3"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="K1:AB1"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AD5:AE7"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AS5:AT5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
